--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_7_20.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_7_20.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>772060.3755634686</v>
+        <v>805313.1132010302</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9257225.343530988</v>
+        <v>9987357.920216883</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5370379.756827482</v>
+        <v>6287139.264030257</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9951380.064486265</v>
+        <v>9577044.534535576</v>
       </c>
     </row>
     <row r="11">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>130.1024780662194</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>317.3167420330365</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481172</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -718,7 +718,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -755,10 +755,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H3" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553073</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250796</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -834,7 +834,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>94.63926978364032</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -870,7 +870,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>156.1271626621473</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -907,13 +907,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>351.5409215395138</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -943,28 +943,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>286.049948679734</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1053,10 +1053,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1068,13 +1068,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>6.390346842435148</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1104,7 +1104,7 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>173.6677896396941</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1135,13 +1135,13 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>284.619571615754</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,22 +1186,22 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>288.1041182974041</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1290,22 +1290,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>4.440065804380853</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1341,13 +1341,13 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>169.0167291702124</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1369,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>198.3036192686447</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>99.07552526968513</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>411.4371413535349</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>61.44749355031658</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1423,22 +1423,22 @@
         <v>120.9327970537822</v>
       </c>
       <c r="T11" t="n">
-        <v>206.1742023667268</v>
+        <v>206.1742023667267</v>
       </c>
       <c r="U11" t="n">
         <v>251.0364052149085</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1466,10 +1466,10 @@
         <v>135.275240877313</v>
       </c>
       <c r="H12" t="n">
-        <v>92.26024958059013</v>
+        <v>92.26024958059011</v>
       </c>
       <c r="I12" t="n">
-        <v>18.18624318344744</v>
+        <v>18.18624318344742</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,22 +1527,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>53.27732104186485</v>
       </c>
       <c r="G13" t="n">
-        <v>166.2570059982656</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>99.32764374521088</v>
+        <v>99.32764374521085</v>
       </c>
       <c r="S13" t="n">
         <v>193.7981713870603</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>220.5367941620016</v>
       </c>
       <c r="U13" t="n">
-        <v>152.017916926073</v>
+        <v>286.2244489913895</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1606,25 +1606,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>177.8598597716318</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>410.9217256534534</v>
+        <v>411.4371413535349</v>
       </c>
       <c r="H14" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>120.9327970537822</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>282.7223964269596</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1700,13 +1700,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>134.9994691657081</v>
+        <v>135.275240877313</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851115</v>
+        <v>92.26024958059011</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247721</v>
+        <v>18.18624318344742</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,16 +1733,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098204</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>128.1435076414547</v>
+        <v>133.2658462320107</v>
       </c>
       <c r="T15" t="n">
-        <v>190.7165703189231</v>
+        <v>191.828123840699</v>
       </c>
       <c r="U15" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8053112726921</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1764,22 +1764,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>152.3012747544527</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>166.2570059982656</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1815,22 +1815,22 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>78.53455727340442</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>220.5367941620016</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1843,10 +1843,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>85.95014028179303</v>
+        <v>212.9390415202624</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1858,13 +1858,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>410.9338715566937</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>42.04518470759558</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.1877617881758</v>
+        <v>109.464536558263</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>250.995171958902</v>
+        <v>250.9961436311612</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1909,10 +1909,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1937,13 +1937,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>134.9994691657081</v>
+        <v>135.0059677968616</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851115</v>
+        <v>89.65963851412518</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247742</v>
+        <v>8.915218264396657</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,16 +1970,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098397</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>128.1435076414547</v>
+        <v>128.264216864854</v>
       </c>
       <c r="T18" t="n">
-        <v>190.7165703189231</v>
+        <v>190.7427643629146</v>
       </c>
       <c r="U18" t="n">
-        <v>225.7871683969286</v>
+        <v>225.7875959384519</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -2001,22 +2001,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>59.91108870906538</v>
+        <v>158.2776226485114</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2052,16 +2052,16 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>189.8639731922165</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>219.5722280944081</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2121353820159</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2080,10 +2080,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2095,10 +2095,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>410.9217256534534</v>
+        <v>410.9338715566937</v>
       </c>
       <c r="H20" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,19 +2131,19 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>109.1877617881758</v>
+        <v>109.464536558263</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396201</v>
+        <v>196.4985460419394</v>
       </c>
       <c r="U20" t="n">
-        <v>250.995171958902</v>
+        <v>250.9961436311612</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>44.41113644355482</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -2174,13 +2174,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>134.9994691657081</v>
+        <v>135.0059677968616</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851115</v>
+        <v>89.65963851412518</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247742</v>
+        <v>8.915218264396657</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,16 +2207,16 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098397</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>128.1435076414547</v>
+        <v>128.264216864854</v>
       </c>
       <c r="T21" t="n">
-        <v>190.7165703189231</v>
+        <v>190.7427643629146</v>
       </c>
       <c r="U21" t="n">
-        <v>225.7871683969286</v>
+        <v>225.7875959384519</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -2238,25 +2238,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>141.1774073964274</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>58.40943379163142</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2292,13 +2292,13 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>219.5722280944081</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>286.2121353820159</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2329,16 +2329,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>410.9217256534534</v>
+        <v>57.92518451681106</v>
       </c>
       <c r="H23" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,10 +2368,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>250.995171958902</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2475,22 +2475,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>90.1554204326394</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>133.9095219288031</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2535,7 +2535,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2557,10 +2557,10 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2569,10 +2569,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>330.4059685301223</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>138.8992180371971</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>203.9179701396201</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
         <v>219.5489492761692</v>
@@ -2772,13 +2772,13 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>171.7647334826869</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>163.942913147585</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2803,13 +2803,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>330.4059685301223</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>102.8695072550961</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2860,7 +2860,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -3000,19 +3000,19 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>201.0130390227251</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>71.98153210089535</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3031,22 +3031,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>272.8196895246581</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3082,7 +3082,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>250.995171958902</v>
@@ -3094,10 +3094,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>304.9187099415037</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3192,7 +3192,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
         <v>189.7690253314419</v>
@@ -3246,13 +3246,13 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>125.8870582755869</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>50.48369769246452</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3271,13 +3271,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>298.3094885755829</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>410.9217256534534</v>
@@ -3316,22 +3316,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U35" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>360.8597259574931</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3423,13 +3423,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>112.9416910403794</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -3474,25 +3474,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>168.4243449750664</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3517,10 +3517,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>113.1061620820468</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3556,22 +3556,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>106.1117155756189</v>
       </c>
     </row>
     <row r="39">
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3663,7 +3663,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>161.3529630655222</v>
+        <v>131.573039120795</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -3711,10 +3711,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
         <v>286.2118382056129</v>
@@ -3739,13 +3739,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>125.7998394252166</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3757,10 +3757,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3793,22 +3793,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U41" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V41" t="n">
-        <v>137.0709134223692</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3897,13 +3897,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>87.59916920231782</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -3912,7 +3912,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>219.5489492761692</v>
@@ -3957,16 +3957,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>177.4507143278949</v>
       </c>
     </row>
     <row r="44">
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>177.6065387483027</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -3985,19 +3985,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>89.60487759803527</v>
       </c>
       <c r="H44" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4042,10 +4042,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4140,13 +4140,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>112.0837488531068</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>128.2078860223645</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -4191,10 +4191,10 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,43 +4306,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1271.984870679801</v>
+        <v>554.3221432721089</v>
       </c>
       <c r="C2" t="n">
-        <v>1271.984870679801</v>
+        <v>185.3596263316971</v>
       </c>
       <c r="D2" t="n">
-        <v>913.7191720730509</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E2" t="n">
-        <v>527.9309194748066</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F2" t="n">
-        <v>527.9309194748066</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4366,16 +4366,16 @@
         <v>2388.358616186807</v>
       </c>
       <c r="V2" t="n">
-        <v>2388.358616186807</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="W2" t="n">
-        <v>2035.589960916693</v>
+        <v>1704.527073573122</v>
       </c>
       <c r="X2" t="n">
-        <v>1662.124202655613</v>
+        <v>1331.061315312042</v>
       </c>
       <c r="Y2" t="n">
-        <v>1271.984870679801</v>
+        <v>940.9219833362306</v>
       </c>
     </row>
     <row r="3">
@@ -4403,28 +4403,28 @@
         <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
         <v>2525.076107152626</v>
@@ -4464,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>149.5382038240415</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>149.5382038240415</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>149.5382038240415</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>149.5382038240415</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>149.5382038240415</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>149.5382038240415</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="U4" t="n">
-        <v>438.9553738610022</v>
+        <v>211.6471865296041</v>
       </c>
       <c r="V4" t="n">
-        <v>438.9553738610022</v>
+        <v>211.6471865296041</v>
       </c>
       <c r="W4" t="n">
-        <v>149.5382038240415</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X4" t="n">
-        <v>149.5382038240415</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>149.5382038240415</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1626.94664591678</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="C5" t="n">
-        <v>1626.94664591678</v>
+        <v>1898.247301030072</v>
       </c>
       <c r="D5" t="n">
-        <v>1268.68094731003</v>
+        <v>1539.981602423322</v>
       </c>
       <c r="E5" t="n">
-        <v>882.8926947117852</v>
+        <v>1154.193349825078</v>
       </c>
       <c r="F5" t="n">
-        <v>471.9067899221776</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
         <v>53.94298182036445</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U5" t="n">
-        <v>2642.120401548716</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="V5" t="n">
-        <v>2642.120401548716</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="W5" t="n">
-        <v>2289.351746278601</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="X5" t="n">
-        <v>1915.885988017521</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="Y5" t="n">
-        <v>1626.94664591678</v>
+        <v>2267.209817970484</v>
       </c>
     </row>
     <row r="6">
@@ -4646,31 +4646,31 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
         <v>2488.762748073963</v>
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>398.3338608103785</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="C7" t="n">
-        <v>229.3976778824716</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="D7" t="n">
-        <v>229.3976778824716</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="E7" t="n">
-        <v>229.3976778824716</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="F7" t="n">
-        <v>229.3976778824716</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="G7" t="n">
-        <v>60.397877620804</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I7" t="n">
         <v>53.94298182036445</v>
@@ -4752,25 +4752,25 @@
         <v>579.9823256406182</v>
       </c>
       <c r="S7" t="n">
-        <v>579.9823256406182</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="T7" t="n">
-        <v>579.9823256406182</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="U7" t="n">
-        <v>579.9823256406182</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="V7" t="n">
-        <v>579.9823256406182</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="W7" t="n">
-        <v>579.9823256406182</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="X7" t="n">
-        <v>579.9823256406182</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="Y7" t="n">
-        <v>579.9823256406182</v>
+        <v>190.2718927217162</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1036.358670716696</v>
+        <v>1914.44116270037</v>
       </c>
       <c r="C8" t="n">
-        <v>1036.358670716696</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="D8" t="n">
-        <v>1036.358670716696</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E8" t="n">
-        <v>1036.358670716696</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F8" t="n">
-        <v>625.3727659270879</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4807,16 +4807,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4834,22 +4834,22 @@
         <v>2520.971603332393</v>
       </c>
       <c r="T8" t="n">
-        <v>2302.336936304455</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U8" t="n">
-        <v>2048.575150942547</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="V8" t="n">
-        <v>1717.512263598976</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="W8" t="n">
-        <v>1426.498002692507</v>
+        <v>1914.44116270037</v>
       </c>
       <c r="X8" t="n">
-        <v>1426.498002692507</v>
+        <v>1914.44116270037</v>
       </c>
       <c r="Y8" t="n">
-        <v>1036.358670716696</v>
+        <v>1914.44116270037</v>
       </c>
     </row>
     <row r="9">
@@ -4859,22 +4859,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
@@ -4895,7 +4895,7 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
         <v>2188.831293537797</v>
@@ -4904,22 +4904,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4938,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>546.4805193761947</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>377.5443364482878</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>227.4276970359521</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
         <v>53.94298182036445</v>
@@ -4968,46 +4968,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>343.1165921657965</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5017,49 +5017,49 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1229.027625269121</v>
+        <v>1349.560763775859</v>
       </c>
       <c r="C11" t="n">
-        <v>860.0651083287094</v>
+        <v>980.5982468354468</v>
       </c>
       <c r="D11" t="n">
-        <v>501.7994097219588</v>
+        <v>880.5219586842497</v>
       </c>
       <c r="E11" t="n">
-        <v>116.0111571237145</v>
+        <v>880.5219586842497</v>
       </c>
       <c r="F11" t="n">
-        <v>116.0111571237145</v>
+        <v>469.5360538946421</v>
       </c>
       <c r="G11" t="n">
-        <v>116.0111571237145</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H11" t="n">
-        <v>116.0111571237145</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I11" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J11" t="n">
-        <v>199.5143021373487</v>
+        <v>199.5143021373488</v>
       </c>
       <c r="K11" t="n">
-        <v>468.42649406655</v>
+        <v>468.4264940665503</v>
       </c>
       <c r="L11" t="n">
-        <v>838.937608855259</v>
+        <v>838.9376088552594</v>
       </c>
       <c r="M11" t="n">
-        <v>1282.872051350723</v>
+        <v>1282.872051350724</v>
       </c>
       <c r="N11" t="n">
         <v>1738.603625623768</v>
       </c>
       <c r="O11" t="n">
-        <v>2155.602766936375</v>
+        <v>2155.602766936376</v>
       </c>
       <c r="P11" t="n">
-        <v>2477.000885571627</v>
+        <v>2477.000885571628</v>
       </c>
       <c r="Q11" t="n">
         <v>2670.18474111696</v>
@@ -5077,16 +5077,16 @@
         <v>2113.16585401275</v>
       </c>
       <c r="V11" t="n">
-        <v>1782.102966669179</v>
+        <v>2113.16585401275</v>
       </c>
       <c r="W11" t="n">
-        <v>1429.334311399065</v>
+        <v>2113.16585401275</v>
       </c>
       <c r="X11" t="n">
-        <v>1429.334311399065</v>
+        <v>1739.70009575167</v>
       </c>
       <c r="Y11" t="n">
-        <v>1429.334311399065</v>
+        <v>1349.560763775859</v>
       </c>
     </row>
     <row r="12">
@@ -5108,40 +5108,40 @@
         <v>448.681311148379</v>
       </c>
       <c r="F12" t="n">
-        <v>302.146753175264</v>
+        <v>302.1467531752639</v>
       </c>
       <c r="G12" t="n">
         <v>165.5050957234327</v>
       </c>
       <c r="H12" t="n">
-        <v>72.31292442990733</v>
+        <v>72.3129244299073</v>
       </c>
       <c r="I12" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J12" t="n">
-        <v>246.6565409677913</v>
+        <v>234.1919340023776</v>
       </c>
       <c r="K12" t="n">
-        <v>480.7603642733345</v>
+        <v>428.3703600217762</v>
       </c>
       <c r="L12" t="n">
-        <v>788.1797623177063</v>
+        <v>735.789758066148</v>
       </c>
       <c r="M12" t="n">
-        <v>1166.280567971507</v>
+        <v>1403.334158093158</v>
       </c>
       <c r="N12" t="n">
-        <v>1833.824967998518</v>
+        <v>1805.850811914302</v>
       </c>
       <c r="O12" t="n">
-        <v>2179.829273034831</v>
+        <v>2151.855116950615</v>
       </c>
       <c r="P12" t="n">
-        <v>2438.195165861565</v>
+        <v>2410.22100977735</v>
       </c>
       <c r="Q12" t="n">
-        <v>2560.986726597623</v>
+        <v>2533.012570513408</v>
       </c>
       <c r="R12" t="n">
         <v>2560.986726597623</v>
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>835.7352149361283</v>
+        <v>107.7584576202279</v>
       </c>
       <c r="C13" t="n">
-        <v>666.7990320082214</v>
+        <v>107.7584576202279</v>
       </c>
       <c r="D13" t="n">
-        <v>516.6823925958856</v>
+        <v>107.7584576202279</v>
       </c>
       <c r="E13" t="n">
-        <v>368.7692990134926</v>
+        <v>107.7584576202279</v>
       </c>
       <c r="F13" t="n">
-        <v>221.8793515155822</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G13" t="n">
         <v>53.94298182036445</v>
@@ -5199,16 +5199,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J13" t="n">
-        <v>82.88339090485938</v>
+        <v>82.88339090485943</v>
       </c>
       <c r="K13" t="n">
-        <v>260.2782098866545</v>
+        <v>260.2782098866546</v>
       </c>
       <c r="L13" t="n">
-        <v>542.8089378877603</v>
+        <v>542.8089378877605</v>
       </c>
       <c r="M13" t="n">
-        <v>851.0870999282808</v>
+        <v>851.0870999282812</v>
       </c>
       <c r="N13" t="n">
         <v>1157.469712732903</v>
@@ -5217,34 +5217,34 @@
         <v>1424.447349606354</v>
       </c>
       <c r="P13" t="n">
-        <v>1629.372157534688</v>
+        <v>1629.372157534689</v>
       </c>
       <c r="Q13" t="n">
-        <v>1687.816392302165</v>
+        <v>1687.816392302166</v>
       </c>
       <c r="R13" t="n">
-        <v>1587.485439024174</v>
+        <v>1587.485439024175</v>
       </c>
       <c r="S13" t="n">
-        <v>1391.729710350376</v>
+        <v>1391.729710350377</v>
       </c>
       <c r="T13" t="n">
-        <v>1391.729710350376</v>
+        <v>1168.9652718029</v>
       </c>
       <c r="U13" t="n">
-        <v>1238.176258909898</v>
+        <v>879.8496667610927</v>
       </c>
       <c r="V13" t="n">
-        <v>1238.176258909898</v>
+        <v>625.1651785552059</v>
       </c>
       <c r="W13" t="n">
-        <v>1238.176258909898</v>
+        <v>335.7480085182453</v>
       </c>
       <c r="X13" t="n">
-        <v>1238.176258909898</v>
+        <v>107.7584576202279</v>
       </c>
       <c r="Y13" t="n">
-        <v>1017.383679766368</v>
+        <v>107.7584576202279</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1523.222118183415</v>
+        <v>1814.929152234655</v>
       </c>
       <c r="C14" t="n">
-        <v>1523.222118183415</v>
+        <v>1445.966635294243</v>
       </c>
       <c r="D14" t="n">
-        <v>1164.956419576664</v>
+        <v>1266.310211282494</v>
       </c>
       <c r="E14" t="n">
-        <v>779.1681669784198</v>
+        <v>880.5219586842497</v>
       </c>
       <c r="F14" t="n">
-        <v>779.1681669784198</v>
+        <v>469.5360538946421</v>
       </c>
       <c r="G14" t="n">
-        <v>364.0957168234162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H14" t="n">
-        <v>66.51211643218342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912087</v>
+        <v>199.5143021373488</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810553</v>
+        <v>468.4264940665503</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329464</v>
+        <v>838.9376088552594</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001389</v>
+        <v>1282.872051350724</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060171</v>
+        <v>1738.603625623768</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939508</v>
+        <v>2155.602766936376</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296686</v>
+        <v>2477.000885571628</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052368</v>
+        <v>2670.18474111696</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.605821609171</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S14" t="n">
-        <v>3325.605821609171</v>
+        <v>2574.994750559857</v>
       </c>
       <c r="T14" t="n">
-        <v>3119.628073993393</v>
+        <v>2574.994750559857</v>
       </c>
       <c r="U14" t="n">
-        <v>2866.09759726723</v>
+        <v>2574.994750559857</v>
       </c>
       <c r="V14" t="n">
-        <v>2535.034709923659</v>
+        <v>2574.994750559857</v>
       </c>
       <c r="W14" t="n">
-        <v>2182.266054653544</v>
+        <v>2574.994750559857</v>
       </c>
       <c r="X14" t="n">
-        <v>1808.800296392465</v>
+        <v>2201.528992298777</v>
       </c>
       <c r="Y14" t="n">
-        <v>1523.222118183415</v>
+        <v>2201.528992298777</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811084</v>
+        <v>931.3062050962127</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999814</v>
+        <v>756.8531758150857</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387301</v>
+        <v>607.9187661538344</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332746</v>
+        <v>448.681311148379</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601596</v>
+        <v>302.1467531752639</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927777</v>
+        <v>165.5050957234327</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064525</v>
+        <v>72.3129244299073</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228007</v>
+        <v>121.8264159807866</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031479</v>
+        <v>316.0048420001852</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158132</v>
+        <v>763.7639141503629</v>
       </c>
       <c r="M15" t="n">
-        <v>1212.428070438129</v>
+        <v>1431.308314177373</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.951113992583</v>
+        <v>1833.824967998517</v>
       </c>
       <c r="O15" t="n">
-        <v>2096.912393410638</v>
+        <v>2179.82927303483</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.411984886741</v>
+        <v>2438.195165861565</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.053542533341</v>
+        <v>2560.986726597623</v>
       </c>
       <c r="R15" t="n">
-        <v>2564.909189125856</v>
+        <v>2560.986726597623</v>
       </c>
       <c r="S15" t="n">
-        <v>2435.471302619336</v>
+        <v>2426.374760706703</v>
       </c>
       <c r="T15" t="n">
-        <v>2242.828302297192</v>
+        <v>2232.608979049431</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431607</v>
+        <v>2004.522806046712</v>
       </c>
       <c r="V15" t="n">
-        <v>1779.608347199865</v>
+        <v>1769.370697814969</v>
       </c>
       <c r="W15" t="n">
-        <v>1525.370990471663</v>
+        <v>1515.133341086767</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.51949026613</v>
+        <v>1307.281840881235</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501176</v>
+        <v>1099.521542116281</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>384.3315924698002</v>
+        <v>835.7352149361283</v>
       </c>
       <c r="C16" t="n">
-        <v>384.3315924698002</v>
+        <v>666.7990320082214</v>
       </c>
       <c r="D16" t="n">
-        <v>234.2149530574645</v>
+        <v>516.6823925958856</v>
       </c>
       <c r="E16" t="n">
-        <v>234.2149530574645</v>
+        <v>368.7692990134926</v>
       </c>
       <c r="F16" t="n">
-        <v>234.2149530574645</v>
+        <v>221.8793515155822</v>
       </c>
       <c r="G16" t="n">
-        <v>66.51211643218342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H16" t="n">
-        <v>66.51211643218342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J16" t="n">
-        <v>111.634748879119</v>
+        <v>82.88339090485943</v>
       </c>
       <c r="K16" t="n">
-        <v>315.6219318279954</v>
+        <v>260.2782098866546</v>
       </c>
       <c r="L16" t="n">
-        <v>632.1817302764914</v>
+        <v>542.8089378877605</v>
       </c>
       <c r="M16" t="n">
-        <v>976.3387758760405</v>
+        <v>851.0870999282812</v>
       </c>
       <c r="N16" t="n">
-        <v>1317.747152581905</v>
+        <v>1157.469712732903</v>
       </c>
       <c r="O16" t="n">
-        <v>1617.076751502319</v>
+        <v>1424.447349606354</v>
       </c>
       <c r="P16" t="n">
-        <v>1849.684251935978</v>
+        <v>1629.372157534689</v>
       </c>
       <c r="Q16" t="n">
-        <v>1927.294548088493</v>
+        <v>1687.816392302166</v>
       </c>
       <c r="R16" t="n">
-        <v>1927.294548088493</v>
+        <v>1687.816392302166</v>
       </c>
       <c r="S16" t="n">
-        <v>1847.966712458791</v>
+        <v>1687.816392302166</v>
       </c>
       <c r="T16" t="n">
-        <v>1847.966712458791</v>
+        <v>1465.05195375469</v>
       </c>
       <c r="U16" t="n">
-        <v>1558.863845584435</v>
+        <v>1465.05195375469</v>
       </c>
       <c r="V16" t="n">
-        <v>1304.179357378548</v>
+        <v>1210.367465548803</v>
       </c>
       <c r="W16" t="n">
-        <v>1014.762187341587</v>
+        <v>1210.367465548803</v>
       </c>
       <c r="X16" t="n">
-        <v>786.77263644357</v>
+        <v>1210.367465548803</v>
       </c>
       <c r="Y16" t="n">
-        <v>565.9800573000399</v>
+        <v>989.5748864052724</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1221.551972426786</v>
+        <v>2047.772896771694</v>
       </c>
       <c r="C17" t="n">
-        <v>1221.551972426786</v>
+        <v>1678.810379831283</v>
       </c>
       <c r="D17" t="n">
-        <v>863.2862738200351</v>
+        <v>1320.544681224532</v>
       </c>
       <c r="E17" t="n">
-        <v>477.498021221791</v>
+        <v>934.756428626288</v>
       </c>
       <c r="F17" t="n">
-        <v>66.51211643218343</v>
+        <v>523.7705238366804</v>
       </c>
       <c r="G17" t="n">
-        <v>66.51211643218343</v>
+        <v>108.6858050925453</v>
       </c>
       <c r="H17" t="n">
-        <v>66.51211643218343</v>
+        <v>108.6858050925453</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218343</v>
+        <v>66.21592154951945</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912089</v>
+        <v>254.0744928369593</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810554</v>
+        <v>586.3643121319028</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329464</v>
+        <v>1035.500977900982</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.776739001388</v>
+        <v>1566.921495383896</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.555556060171</v>
+        <v>2111.554760801562</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939508</v>
+        <v>2612.501248106874</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296686</v>
+        <v>3005.546484356409</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.588755052369</v>
+        <v>3252.534341412641</v>
       </c>
       <c r="R17" t="n">
-        <v>3325.605821609171</v>
+        <v>3310.796077475972</v>
       </c>
       <c r="S17" t="n">
-        <v>3215.315153136266</v>
+        <v>3200.225838528232</v>
       </c>
       <c r="T17" t="n">
-        <v>3009.337405520489</v>
+        <v>3200.225838528232</v>
       </c>
       <c r="U17" t="n">
-        <v>2755.806928794325</v>
+        <v>2946.694380314937</v>
       </c>
       <c r="V17" t="n">
-        <v>2424.744041450754</v>
+        <v>2615.631492971367</v>
       </c>
       <c r="W17" t="n">
-        <v>2071.97538618064</v>
+        <v>2262.862837701252</v>
       </c>
       <c r="X17" t="n">
-        <v>1698.50962791956</v>
+        <v>2262.862837701252</v>
       </c>
       <c r="Y17" t="n">
-        <v>1308.370295943748</v>
+        <v>2262.862837701252</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811087</v>
+        <v>931.3156003142898</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999817</v>
+        <v>756.8625710331628</v>
       </c>
       <c r="D18" t="n">
-        <v>618.1564155387305</v>
+        <v>607.9281613719115</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332749</v>
+        <v>448.6907063664561</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601599</v>
+        <v>302.1561483933411</v>
       </c>
       <c r="G18" t="n">
-        <v>176.021302392778</v>
+        <v>165.7864839520668</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064548</v>
+        <v>75.22119252365749</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218343</v>
+        <v>66.21592154951945</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228008</v>
+        <v>159.2853526912741</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031479</v>
+        <v>396.5106591183471</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158132</v>
+        <v>761.8119001858313</v>
       </c>
       <c r="M18" t="n">
-        <v>1212.428070438129</v>
+        <v>1207.458086537445</v>
       </c>
       <c r="N18" t="n">
-        <v>1685.951113992583</v>
+        <v>1679.307846295919</v>
       </c>
       <c r="O18" t="n">
-        <v>2096.912393410638</v>
+        <v>2088.738397943176</v>
       </c>
       <c r="P18" t="n">
-        <v>2407.411984886741</v>
+        <v>2398.009445431869</v>
       </c>
       <c r="Q18" t="n">
-        <v>2565.053542533341</v>
+        <v>2554.829753957941</v>
       </c>
       <c r="R18" t="n">
-        <v>2564.909189125856</v>
+        <v>2554.829753957941</v>
       </c>
       <c r="S18" t="n">
-        <v>2435.471302619336</v>
+        <v>2425.269938942937</v>
       </c>
       <c r="T18" t="n">
-        <v>2242.828302297192</v>
+        <v>2232.600479990498</v>
       </c>
       <c r="U18" t="n">
-        <v>2014.760455431608</v>
+        <v>2004.532201264789</v>
       </c>
       <c r="V18" t="n">
-        <v>1779.608347199865</v>
+        <v>1769.380093033046</v>
       </c>
       <c r="W18" t="n">
-        <v>1525.370990471663</v>
+        <v>1515.142736304844</v>
       </c>
       <c r="X18" t="n">
-        <v>1317.519490266131</v>
+        <v>1307.291236099312</v>
       </c>
       <c r="Y18" t="n">
-        <v>1109.759191501177</v>
+        <v>1099.530937334358</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>593.9942835760974</v>
+        <v>226.0923080631673</v>
       </c>
       <c r="C19" t="n">
-        <v>425.0581006481905</v>
+        <v>226.0923080631673</v>
       </c>
       <c r="D19" t="n">
-        <v>274.9414612358547</v>
+        <v>226.0923080631673</v>
       </c>
       <c r="E19" t="n">
-        <v>127.0283676534616</v>
+        <v>226.0923080631673</v>
       </c>
       <c r="F19" t="n">
-        <v>127.0283676534616</v>
+        <v>226.0923080631673</v>
       </c>
       <c r="G19" t="n">
-        <v>66.51211643218343</v>
+        <v>66.21592154951945</v>
       </c>
       <c r="H19" t="n">
-        <v>66.51211643218343</v>
+        <v>66.21592154951945</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218343</v>
+        <v>66.21592154951945</v>
       </c>
       <c r="J19" t="n">
-        <v>111.634748879119</v>
+        <v>110.9572157501788</v>
       </c>
       <c r="K19" t="n">
-        <v>315.6219318279954</v>
+        <v>314.317742817943</v>
       </c>
       <c r="L19" t="n">
-        <v>632.1817302764914</v>
+        <v>630.0756374886842</v>
       </c>
       <c r="M19" t="n">
-        <v>976.3387758760405</v>
+        <v>973.3871879897968</v>
       </c>
       <c r="N19" t="n">
-        <v>1317.747152581905</v>
+        <v>1313.970173580891</v>
       </c>
       <c r="O19" t="n">
-        <v>1617.076751502319</v>
+        <v>1612.537390213391</v>
       </c>
       <c r="P19" t="n">
-        <v>1849.684251935978</v>
+        <v>1844.492540894131</v>
       </c>
       <c r="Q19" t="n">
-        <v>1927.294548088493</v>
+        <v>1921.651183891643</v>
       </c>
       <c r="R19" t="n">
-        <v>1927.294548088493</v>
+        <v>1921.651183891643</v>
       </c>
       <c r="S19" t="n">
-        <v>1735.608663915319</v>
+        <v>1729.869392788394</v>
       </c>
       <c r="T19" t="n">
-        <v>1513.842048484845</v>
+        <v>1508.079263400103</v>
       </c>
       <c r="U19" t="n">
-        <v>1513.842048484845</v>
+        <v>1218.976096347562</v>
       </c>
       <c r="V19" t="n">
-        <v>1513.842048484845</v>
+        <v>964.2916081416753</v>
       </c>
       <c r="W19" t="n">
-        <v>1224.424878447885</v>
+        <v>674.8744381047147</v>
       </c>
       <c r="X19" t="n">
-        <v>996.4353275498672</v>
+        <v>446.8848872066974</v>
       </c>
       <c r="Y19" t="n">
-        <v>775.6427484063371</v>
+        <v>226.0923080631673</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1934.208022973022</v>
+        <v>2005.303013228669</v>
       </c>
       <c r="C20" t="n">
-        <v>1934.208022973022</v>
+        <v>1636.340496288257</v>
       </c>
       <c r="D20" t="n">
-        <v>1575.942324366272</v>
+        <v>1278.074797681506</v>
       </c>
       <c r="E20" t="n">
-        <v>1190.154071768027</v>
+        <v>892.2865450832621</v>
       </c>
       <c r="F20" t="n">
-        <v>779.1681669784198</v>
+        <v>481.3006402936546</v>
       </c>
       <c r="G20" t="n">
-        <v>364.0957168234162</v>
+        <v>66.21592154951945</v>
       </c>
       <c r="H20" t="n">
-        <v>66.51211643218342</v>
+        <v>66.21592154951945</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218342</v>
+        <v>66.21592154951945</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912088</v>
+        <v>254.0744928369595</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810553</v>
+        <v>586.3643121319021</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329464</v>
+        <v>1035.500977900981</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.776739001388</v>
+        <v>1566.921495383895</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.555556060171</v>
+        <v>2111.55476080156</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939508</v>
+        <v>2612.501248106873</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296686</v>
+        <v>3005.546484356408</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.588755052368</v>
+        <v>3252.534341412641</v>
       </c>
       <c r="R20" t="n">
-        <v>3325.605821609171</v>
+        <v>3310.796077475972</v>
       </c>
       <c r="S20" t="n">
-        <v>3215.315153136266</v>
+        <v>3200.225838528232</v>
       </c>
       <c r="T20" t="n">
-        <v>3009.337405520488</v>
+        <v>3001.742458687889</v>
       </c>
       <c r="U20" t="n">
-        <v>2755.806928794324</v>
+        <v>2748.211000474595</v>
       </c>
       <c r="V20" t="n">
-        <v>2755.806928794324</v>
+        <v>2748.211000474595</v>
       </c>
       <c r="W20" t="n">
-        <v>2710.947195012955</v>
+        <v>2395.44234520448</v>
       </c>
       <c r="X20" t="n">
-        <v>2710.947195012955</v>
+        <v>2395.44234520448</v>
       </c>
       <c r="Y20" t="n">
-        <v>2320.807863037144</v>
+        <v>2005.303013228669</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811087</v>
+        <v>931.3156003142899</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999817</v>
+        <v>756.8625710331629</v>
       </c>
       <c r="D21" t="n">
-        <v>618.1564155387305</v>
+        <v>607.9281613719115</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332749</v>
+        <v>448.690706366456</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601599</v>
+        <v>302.1561483933411</v>
       </c>
       <c r="G21" t="n">
-        <v>176.0213023927779</v>
+        <v>165.7864839520668</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064545</v>
+        <v>75.22119252365749</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218342</v>
+        <v>66.21592154951945</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228007</v>
+        <v>159.2853526912741</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031479</v>
+        <v>396.5106591183473</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158132</v>
+        <v>761.8119001858311</v>
       </c>
       <c r="M21" t="n">
-        <v>1212.428070438129</v>
+        <v>1207.458086537445</v>
       </c>
       <c r="N21" t="n">
-        <v>1685.951113992583</v>
+        <v>1679.307846295919</v>
       </c>
       <c r="O21" t="n">
-        <v>2096.912393410638</v>
+        <v>2088.738397943176</v>
       </c>
       <c r="P21" t="n">
-        <v>2407.411984886741</v>
+        <v>2398.00944543187</v>
       </c>
       <c r="Q21" t="n">
-        <v>2565.053542533341</v>
+        <v>2554.829753957941</v>
       </c>
       <c r="R21" t="n">
-        <v>2564.909189125856</v>
+        <v>2554.829753957941</v>
       </c>
       <c r="S21" t="n">
-        <v>2435.471302619336</v>
+        <v>2425.269938942937</v>
       </c>
       <c r="T21" t="n">
-        <v>2242.828302297192</v>
+        <v>2232.600479990498</v>
       </c>
       <c r="U21" t="n">
-        <v>2014.760455431608</v>
+        <v>2004.532201264789</v>
       </c>
       <c r="V21" t="n">
-        <v>1779.608347199865</v>
+        <v>1769.380093033046</v>
       </c>
       <c r="W21" t="n">
-        <v>1525.370990471663</v>
+        <v>1515.142736304845</v>
       </c>
       <c r="X21" t="n">
-        <v>1317.519490266131</v>
+        <v>1307.291236099312</v>
       </c>
       <c r="Y21" t="n">
-        <v>1109.759191501177</v>
+        <v>1099.530937334358</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>423.5412774992673</v>
+        <v>529.9551455577298</v>
       </c>
       <c r="C22" t="n">
-        <v>423.5412774992673</v>
+        <v>361.0189626298229</v>
       </c>
       <c r="D22" t="n">
-        <v>273.4246380869315</v>
+        <v>361.0189626298229</v>
       </c>
       <c r="E22" t="n">
-        <v>125.5115445045384</v>
+        <v>213.1058690474298</v>
       </c>
       <c r="F22" t="n">
-        <v>125.5115445045384</v>
+        <v>66.21592154951945</v>
       </c>
       <c r="G22" t="n">
-        <v>125.5115445045384</v>
+        <v>66.21592154951945</v>
       </c>
       <c r="H22" t="n">
-        <v>66.51211643218342</v>
+        <v>66.21592154951945</v>
       </c>
       <c r="I22" t="n">
-        <v>66.51211643218342</v>
+        <v>66.21592154951945</v>
       </c>
       <c r="J22" t="n">
-        <v>111.634748879119</v>
+        <v>110.9572157501788</v>
       </c>
       <c r="K22" t="n">
-        <v>315.6219318279954</v>
+        <v>314.317742817943</v>
       </c>
       <c r="L22" t="n">
-        <v>632.1817302764914</v>
+        <v>630.0756374886842</v>
       </c>
       <c r="M22" t="n">
-        <v>976.3387758760405</v>
+        <v>973.3871879897968</v>
       </c>
       <c r="N22" t="n">
-        <v>1317.747152581905</v>
+        <v>1313.970173580891</v>
       </c>
       <c r="O22" t="n">
-        <v>1617.076751502319</v>
+        <v>1612.537390213391</v>
       </c>
       <c r="P22" t="n">
-        <v>1849.684251935978</v>
+        <v>1844.492540894131</v>
       </c>
       <c r="Q22" t="n">
-        <v>1927.294548088493</v>
+        <v>1921.651183891643</v>
       </c>
       <c r="R22" t="n">
-        <v>1927.294548088493</v>
+        <v>1921.651183891643</v>
       </c>
       <c r="S22" t="n">
-        <v>1927.294548088493</v>
+        <v>1921.651183891643</v>
       </c>
       <c r="T22" t="n">
-        <v>1705.527932658019</v>
+        <v>1699.861054503352</v>
       </c>
       <c r="U22" t="n">
-        <v>1416.425065783662</v>
+        <v>1410.757887450811</v>
       </c>
       <c r="V22" t="n">
-        <v>1161.740577577775</v>
+        <v>1410.757887450811</v>
       </c>
       <c r="W22" t="n">
-        <v>872.3234075408147</v>
+        <v>1121.34071741385</v>
       </c>
       <c r="X22" t="n">
-        <v>644.3338566427974</v>
+        <v>893.351166515833</v>
       </c>
       <c r="Y22" t="n">
-        <v>423.5412774992673</v>
+        <v>672.5585873723029</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2374.216356690175</v>
+        <v>1238.038871968308</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749764</v>
+        <v>869.0763550278964</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143014</v>
+        <v>510.8106564211459</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.19988854477</v>
+        <v>125.0224038229017</v>
       </c>
       <c r="F23" t="n">
-        <v>850.213983755162</v>
+        <v>125.0224038229017</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001586</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H23" t="n">
-        <v>137.5579332089258</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I23" t="n">
-        <v>95.56103444839442</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J23" t="n">
-        <v>284.4401654074198</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K23" t="n">
-        <v>618.2595390972663</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L23" t="n">
-        <v>1482.778354750621</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M23" t="n">
-        <v>2461.32865758045</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N23" t="n">
-        <v>3441.080929807096</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O23" t="n">
-        <v>4075.973927750058</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P23" t="n">
-        <v>4470.748294107237</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q23" t="n">
-        <v>4719.034655862919</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R23" t="n">
-        <v>4778.051722419721</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S23" t="n">
-        <v>4667.761053946816</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T23" t="n">
-        <v>4461.783306331038</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604874</v>
+        <v>3072.075344883006</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.189942261303</v>
+        <v>2741.012457539436</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.421286991189</v>
+        <v>2388.243802269321</v>
       </c>
       <c r="X23" t="n">
-        <v>3150.955528730109</v>
+        <v>2014.778044008242</v>
       </c>
       <c r="Y23" t="n">
-        <v>2760.816196754297</v>
+        <v>1624.63871203243</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973194</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C24" t="n">
-        <v>796.1397432161924</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549413</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494857</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763708</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G24" t="n">
-        <v>205.0702204089894</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468568</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I24" t="n">
-        <v>95.56103444839442</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J24" t="n">
-        <v>189.2383039390117</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K24" t="n">
-        <v>427.5025029193589</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L24" t="n">
-        <v>794.200663232024</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M24" t="n">
-        <v>1241.47698845434</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N24" t="n">
-        <v>1715.000032008795</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O24" t="n">
-        <v>2125.96131142685</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P24" t="n">
-        <v>2436.460902902953</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q24" t="n">
-        <v>2594.102460549552</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R24" t="n">
-        <v>2593.958107142068</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S24" t="n">
-        <v>2464.520220635548</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T24" t="n">
-        <v>2271.877220313403</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U24" t="n">
-        <v>2043.809373447819</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V24" t="n">
-        <v>1808.657265216076</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W24" t="n">
-        <v>1554.419908487874</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X24" t="n">
-        <v>1346.568408282341</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y24" t="n">
-        <v>1138.808109517387</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>525.6262188911253</v>
+        <v>644.3338566427974</v>
       </c>
       <c r="C25" t="n">
-        <v>525.6262188911253</v>
+        <v>475.3976737148905</v>
       </c>
       <c r="D25" t="n">
-        <v>525.6262188911253</v>
+        <v>325.2810343025548</v>
       </c>
       <c r="E25" t="n">
-        <v>377.7131253087322</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="F25" t="n">
-        <v>230.8231778108218</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G25" t="n">
-        <v>95.56103444839442</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H25" t="n">
-        <v>95.56103444839442</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I25" t="n">
-        <v>95.56103444839442</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J25" t="n">
-        <v>140.68366689533</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K25" t="n">
-        <v>344.6708498442064</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L25" t="n">
-        <v>661.2306482927024</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M25" t="n">
-        <v>1005.387693892251</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N25" t="n">
-        <v>1346.796070598116</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O25" t="n">
-        <v>1646.12566951853</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P25" t="n">
-        <v>1878.733169952189</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q25" t="n">
-        <v>1956.343466104704</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R25" t="n">
-        <v>1956.343466104704</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S25" t="n">
-        <v>1956.343466104704</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T25" t="n">
-        <v>1734.57685067423</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U25" t="n">
-        <v>1445.473983799873</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V25" t="n">
-        <v>1445.473983799873</v>
+        <v>1161.740577577775</v>
       </c>
       <c r="W25" t="n">
-        <v>1156.056813762912</v>
+        <v>872.3234075408147</v>
       </c>
       <c r="X25" t="n">
-        <v>928.0672628648952</v>
+        <v>644.3338566427974</v>
       </c>
       <c r="Y25" t="n">
-        <v>707.274683721365</v>
+        <v>644.3338566427974</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1936.827026534696</v>
+        <v>1418.660964416652</v>
       </c>
       <c r="C26" t="n">
-        <v>1567.864509594284</v>
+        <v>1418.660964416652</v>
       </c>
       <c r="D26" t="n">
-        <v>1209.598810987533</v>
+        <v>1418.660964416652</v>
       </c>
       <c r="E26" t="n">
-        <v>823.8105583892891</v>
+        <v>1032.872711818408</v>
       </c>
       <c r="F26" t="n">
-        <v>412.8246535996815</v>
+        <v>621.8868070288001</v>
       </c>
       <c r="G26" t="n">
-        <v>79.08125104400237</v>
+        <v>206.8143568737966</v>
       </c>
       <c r="H26" t="n">
-        <v>79.08125104400237</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I26" t="n">
-        <v>79.08125104400237</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J26" t="n">
-        <v>267.9603820030278</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K26" t="n">
-        <v>601.7797556928742</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L26" t="n">
-        <v>1052.813968941283</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M26" t="n">
-        <v>2031.364271771112</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N26" t="n">
-        <v>2749.012286651119</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O26" t="n">
-        <v>3251.984757530456</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P26" t="n">
-        <v>3646.759123887634</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q26" t="n">
-        <v>3895.045485643316</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R26" t="n">
-        <v>3954.062552200119</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S26" t="n">
-        <v>3843.771883727214</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T26" t="n">
-        <v>3637.794136111436</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="U26" t="n">
-        <v>3384.263659385272</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="V26" t="n">
-        <v>3053.200772041701</v>
+        <v>2535.034709923658</v>
       </c>
       <c r="W26" t="n">
-        <v>2700.432116771587</v>
+        <v>2182.266054653544</v>
       </c>
       <c r="X26" t="n">
-        <v>2326.966358510507</v>
+        <v>1808.800296392464</v>
       </c>
       <c r="Y26" t="n">
-        <v>1936.827026534696</v>
+        <v>1418.660964416652</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>954.1129890929275</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C27" t="n">
-        <v>779.6599598118005</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D27" t="n">
-        <v>630.7255501505492</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E27" t="n">
-        <v>471.4880951450938</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F27" t="n">
-        <v>324.9535371719788</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G27" t="n">
-        <v>188.5904370045969</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H27" t="n">
-        <v>98.0885426424644</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I27" t="n">
-        <v>79.08125104400237</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J27" t="n">
-        <v>172.7585205346197</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K27" t="n">
-        <v>411.0227195149669</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L27" t="n">
-        <v>777.7208798276322</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M27" t="n">
-        <v>1224.997205049948</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N27" t="n">
-        <v>1698.520248604403</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O27" t="n">
-        <v>2109.481528022457</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P27" t="n">
-        <v>2419.98111949856</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q27" t="n">
-        <v>2577.62267714516</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R27" t="n">
-        <v>2577.478323737676</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S27" t="n">
-        <v>2448.040437231155</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T27" t="n">
-        <v>2255.397436909011</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U27" t="n">
-        <v>2027.329590043426</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V27" t="n">
-        <v>1792.177481811684</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W27" t="n">
-        <v>1537.940125083482</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X27" t="n">
-        <v>1330.088624877949</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y27" t="n">
-        <v>1122.328326112995</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>860.6399510898295</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C28" t="n">
-        <v>691.7037681619227</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D28" t="n">
-        <v>541.5871287495869</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E28" t="n">
-        <v>393.6740351671938</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F28" t="n">
-        <v>246.7840876692834</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G28" t="n">
-        <v>79.08125104400237</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H28" t="n">
-        <v>79.08125104400237</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I28" t="n">
-        <v>79.08125104400237</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J28" t="n">
-        <v>124.2038834909379</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K28" t="n">
-        <v>328.1910664398143</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L28" t="n">
-        <v>644.7508648883104</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M28" t="n">
-        <v>988.9079104878595</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N28" t="n">
-        <v>1330.316287193724</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O28" t="n">
-        <v>1629.645886114138</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P28" t="n">
-        <v>1862.253386547797</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q28" t="n">
-        <v>1939.863682700312</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R28" t="n">
-        <v>1939.863682700312</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S28" t="n">
-        <v>1939.863682700312</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T28" t="n">
-        <v>1718.097067269838</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U28" t="n">
-        <v>1718.097067269838</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="V28" t="n">
-        <v>1718.097067269838</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="W28" t="n">
-        <v>1428.679897232877</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="X28" t="n">
-        <v>1263.080995063599</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y28" t="n">
-        <v>1042.288415920069</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1936.827026534696</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="C29" t="n">
-        <v>1567.864509594284</v>
+        <v>1329.547110979147</v>
       </c>
       <c r="D29" t="n">
-        <v>1209.598810987533</v>
+        <v>971.281412372397</v>
       </c>
       <c r="E29" t="n">
-        <v>823.8105583892891</v>
+        <v>585.4931597741527</v>
       </c>
       <c r="F29" t="n">
-        <v>412.8246535996815</v>
+        <v>585.4931597741527</v>
       </c>
       <c r="G29" t="n">
-        <v>79.08125104400237</v>
+        <v>170.4207096191491</v>
       </c>
       <c r="H29" t="n">
-        <v>79.08125104400237</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I29" t="n">
-        <v>79.08125104400237</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J29" t="n">
-        <v>435.3660310233809</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K29" t="n">
-        <v>769.1854047132274</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L29" t="n">
-        <v>1220.219617961636</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M29" t="n">
-        <v>1753.751522633561</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N29" t="n">
-        <v>2300.530339692343</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O29" t="n">
-        <v>2803.50281057168</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P29" t="n">
-        <v>3516.857898018626</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q29" t="n">
-        <v>3829.986229969064</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R29" t="n">
-        <v>3954.062552200119</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S29" t="n">
-        <v>3843.771883727214</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T29" t="n">
-        <v>3637.794136111436</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U29" t="n">
-        <v>3384.263659385272</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V29" t="n">
-        <v>3053.200772041701</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W29" t="n">
-        <v>2700.432116771587</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X29" t="n">
-        <v>2326.966358510507</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y29" t="n">
-        <v>1936.827026534696</v>
+        <v>1698.509627919559</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>954.1129890929275</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C30" t="n">
-        <v>779.6599598118005</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D30" t="n">
-        <v>630.7255501505492</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E30" t="n">
-        <v>471.4880951450938</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F30" t="n">
-        <v>324.9535371719788</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G30" t="n">
-        <v>188.5904370045969</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H30" t="n">
-        <v>98.0885426424644</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I30" t="n">
-        <v>79.08125104400237</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J30" t="n">
-        <v>172.7585205346197</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K30" t="n">
-        <v>411.0227195149669</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L30" t="n">
-        <v>777.7208798276322</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M30" t="n">
-        <v>1224.997205049948</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N30" t="n">
-        <v>1698.520248604403</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O30" t="n">
-        <v>2109.481528022457</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P30" t="n">
-        <v>2419.98111949856</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q30" t="n">
-        <v>2577.62267714516</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R30" t="n">
-        <v>2577.478323737676</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S30" t="n">
-        <v>2448.040437231155</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T30" t="n">
-        <v>2255.397436909011</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U30" t="n">
-        <v>2027.329590043426</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V30" t="n">
-        <v>1792.177481811684</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W30" t="n">
-        <v>1537.940125083482</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X30" t="n">
-        <v>1330.088624877949</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y30" t="n">
-        <v>1122.328326112995</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>692.9371144645485</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C31" t="n">
-        <v>524.0009315366416</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D31" t="n">
-        <v>373.8842921243058</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E31" t="n">
-        <v>225.9711985419127</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F31" t="n">
-        <v>79.08125104400237</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G31" t="n">
-        <v>79.08125104400237</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H31" t="n">
-        <v>79.08125104400237</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I31" t="n">
-        <v>79.08125104400237</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J31" t="n">
-        <v>124.2038834909379</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K31" t="n">
-        <v>328.1910664398143</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L31" t="n">
-        <v>644.7508648883104</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M31" t="n">
-        <v>988.9079104878595</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N31" t="n">
-        <v>1330.316287193724</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O31" t="n">
-        <v>1629.645886114138</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P31" t="n">
-        <v>1862.253386547797</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q31" t="n">
-        <v>1939.863682700312</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R31" t="n">
-        <v>1939.863682700312</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S31" t="n">
-        <v>1748.177798527138</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T31" t="n">
-        <v>1526.411183096664</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U31" t="n">
-        <v>1323.367709336336</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="V31" t="n">
-        <v>1323.367709336336</v>
+        <v>1383.507193008249</v>
       </c>
       <c r="W31" t="n">
-        <v>1323.367709336336</v>
+        <v>1310.798574724517</v>
       </c>
       <c r="X31" t="n">
-        <v>1095.378158438318</v>
+        <v>1082.809023826499</v>
       </c>
       <c r="Y31" t="n">
-        <v>874.5855792947882</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1632.367821535776</v>
+        <v>1501.213961756483</v>
       </c>
       <c r="C32" t="n">
-        <v>1263.405304595364</v>
+        <v>1501.213961756483</v>
       </c>
       <c r="D32" t="n">
-        <v>905.1396059886135</v>
+        <v>1142.948263149732</v>
       </c>
       <c r="E32" t="n">
-        <v>905.1396059886135</v>
+        <v>757.1600105514881</v>
       </c>
       <c r="F32" t="n">
-        <v>494.1537011990059</v>
+        <v>757.1600105514881</v>
       </c>
       <c r="G32" t="n">
-        <v>79.08125104400237</v>
+        <v>342.0875603964845</v>
       </c>
       <c r="H32" t="n">
-        <v>79.08125104400237</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I32" t="n">
-        <v>79.08125104400237</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J32" t="n">
-        <v>267.9603820030278</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K32" t="n">
-        <v>601.7797556928742</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L32" t="n">
-        <v>1223.683166762508</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M32" t="n">
-        <v>2202.233469592336</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N32" t="n">
-        <v>2749.012286651119</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O32" t="n">
-        <v>3251.984757530456</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P32" t="n">
-        <v>3646.759123887634</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q32" t="n">
-        <v>3895.045485643316</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R32" t="n">
-        <v>3954.062552200119</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S32" t="n">
-        <v>3843.771883727214</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T32" t="n">
-        <v>3637.794136111436</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U32" t="n">
-        <v>3384.263659385272</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V32" t="n">
-        <v>3053.200772041701</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W32" t="n">
-        <v>2700.432116771587</v>
+        <v>2277.953133796416</v>
       </c>
       <c r="X32" t="n">
-        <v>2326.966358510507</v>
+        <v>2277.953133796416</v>
       </c>
       <c r="Y32" t="n">
-        <v>2018.967661599897</v>
+        <v>1887.813801820605</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>954.1129890929275</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C33" t="n">
-        <v>779.6599598118005</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D33" t="n">
-        <v>630.7255501505492</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E33" t="n">
-        <v>471.4880951450938</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F33" t="n">
-        <v>324.9535371719788</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G33" t="n">
-        <v>188.5904370045969</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H33" t="n">
-        <v>98.0885426424644</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I33" t="n">
-        <v>79.08125104400237</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J33" t="n">
-        <v>172.7585205346197</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K33" t="n">
-        <v>411.0227195149669</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L33" t="n">
-        <v>777.7208798276322</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M33" t="n">
-        <v>1224.997205049948</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N33" t="n">
-        <v>1698.520248604403</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O33" t="n">
-        <v>2109.481528022457</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P33" t="n">
-        <v>2419.98111949856</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q33" t="n">
-        <v>2577.62267714516</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R33" t="n">
-        <v>2577.478323737676</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S33" t="n">
-        <v>2448.040437231155</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T33" t="n">
-        <v>2255.397436909011</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U33" t="n">
-        <v>2027.329590043426</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V33" t="n">
-        <v>1792.177481811684</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W33" t="n">
-        <v>1537.940125083482</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X33" t="n">
-        <v>1330.088624877949</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y33" t="n">
-        <v>1122.328326112995</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>710.5233116774938</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C34" t="n">
-        <v>541.5871287495869</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D34" t="n">
-        <v>541.5871287495869</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E34" t="n">
-        <v>393.6740351671938</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F34" t="n">
-        <v>246.7840876692834</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G34" t="n">
-        <v>79.08125104400237</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H34" t="n">
-        <v>79.08125104400237</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I34" t="n">
-        <v>79.08125104400237</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J34" t="n">
-        <v>124.2038834909379</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K34" t="n">
-        <v>328.1910664398143</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L34" t="n">
-        <v>644.7508648883104</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M34" t="n">
-        <v>988.9079104878595</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N34" t="n">
-        <v>1330.316287193724</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O34" t="n">
-        <v>1629.645886114138</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P34" t="n">
-        <v>1862.253386547797</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q34" t="n">
-        <v>1939.863682700312</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R34" t="n">
-        <v>1939.863682700312</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S34" t="n">
-        <v>1748.177798527138</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T34" t="n">
-        <v>1526.411183096664</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U34" t="n">
-        <v>1526.411183096664</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="V34" t="n">
-        <v>1271.726694890777</v>
+        <v>1296.852946519558</v>
       </c>
       <c r="W34" t="n">
-        <v>982.3095248538164</v>
+        <v>1296.852946519558</v>
       </c>
       <c r="X34" t="n">
-        <v>931.3158908210239</v>
+        <v>1068.863395621541</v>
       </c>
       <c r="Y34" t="n">
-        <v>710.5233116774938</v>
+        <v>848.0708164780106</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1550.227186470574</v>
+        <v>1647.321240915451</v>
       </c>
       <c r="C35" t="n">
-        <v>1181.264669530162</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="D35" t="n">
-        <v>879.9419537972501</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E35" t="n">
-        <v>494.1537011990059</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F35" t="n">
-        <v>494.1537011990059</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G35" t="n">
-        <v>79.08125104400237</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H35" t="n">
-        <v>79.08125104400237</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I35" t="n">
-        <v>79.08125104400237</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J35" t="n">
-        <v>267.9603820030278</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K35" t="n">
-        <v>601.7797556928742</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L35" t="n">
-        <v>1223.683166762508</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M35" t="n">
-        <v>2202.233469592336</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N35" t="n">
-        <v>2749.012286651119</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O35" t="n">
-        <v>3251.984757530456</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P35" t="n">
-        <v>3646.759123887634</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q35" t="n">
-        <v>3895.045485643316</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R35" t="n">
-        <v>3954.062552200119</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S35" t="n">
-        <v>3843.771883727214</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T35" t="n">
-        <v>3637.794136111436</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="U35" t="n">
-        <v>3384.263659385272</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="V35" t="n">
-        <v>3053.200772041701</v>
+        <v>2788.565186649821</v>
       </c>
       <c r="W35" t="n">
-        <v>2700.432116771587</v>
+        <v>2788.565186649821</v>
       </c>
       <c r="X35" t="n">
-        <v>2326.966358510507</v>
+        <v>2424.060412955384</v>
       </c>
       <c r="Y35" t="n">
-        <v>1936.827026534696</v>
+        <v>2033.921080979572</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>954.1129890929283</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C36" t="n">
-        <v>779.6599598118013</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D36" t="n">
-        <v>630.7255501505501</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E36" t="n">
-        <v>471.4880951450946</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F36" t="n">
-        <v>324.9535371719796</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G36" t="n">
-        <v>188.5904370045977</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H36" t="n">
-        <v>98.0885426424652</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I36" t="n">
-        <v>79.08125104400237</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J36" t="n">
-        <v>172.7585205346199</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K36" t="n">
-        <v>411.022719514967</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L36" t="n">
-        <v>777.7208798276324</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M36" t="n">
-        <v>1224.997205049948</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N36" t="n">
-        <v>1698.520248604403</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O36" t="n">
-        <v>2109.481528022458</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P36" t="n">
-        <v>2419.981119498561</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q36" t="n">
-        <v>2577.622677145161</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R36" t="n">
-        <v>2577.478323737676</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S36" t="n">
-        <v>2448.040437231156</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T36" t="n">
-        <v>2255.397436909012</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U36" t="n">
-        <v>2027.329590043428</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V36" t="n">
-        <v>1792.177481811685</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W36" t="n">
-        <v>1537.940125083483</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X36" t="n">
-        <v>1330.08862487795</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y36" t="n">
-        <v>1122.328326112996</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>656.9029912546162</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C37" t="n">
-        <v>487.9668083267093</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D37" t="n">
-        <v>373.8842921243058</v>
+        <v>361.3151575124868</v>
       </c>
       <c r="E37" t="n">
-        <v>225.9711985419127</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F37" t="n">
-        <v>79.08125104400237</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G37" t="n">
-        <v>79.08125104400237</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H37" t="n">
-        <v>79.08125104400237</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I37" t="n">
-        <v>79.08125104400237</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J37" t="n">
-        <v>124.2038834909379</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K37" t="n">
-        <v>328.1910664398143</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L37" t="n">
-        <v>644.7508648883104</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M37" t="n">
-        <v>988.9079104878595</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N37" t="n">
-        <v>1330.316287193724</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O37" t="n">
-        <v>1629.645886114138</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P37" t="n">
-        <v>1862.253386547797</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q37" t="n">
-        <v>1939.863682700312</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R37" t="n">
-        <v>1939.863682700312</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S37" t="n">
-        <v>1939.863682700312</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T37" t="n">
-        <v>1718.097067269838</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="U37" t="n">
-        <v>1428.994200395481</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="V37" t="n">
-        <v>1174.309712189594</v>
+        <v>1480.924175709432</v>
       </c>
       <c r="W37" t="n">
-        <v>884.8925421526335</v>
+        <v>1310.798574724517</v>
       </c>
       <c r="X37" t="n">
-        <v>656.9029912546162</v>
+        <v>1082.809023826499</v>
       </c>
       <c r="Y37" t="n">
-        <v>656.9029912546162</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="38">
@@ -7150,28 +7150,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1734.047335491681</v>
+        <v>1204.726236768953</v>
       </c>
       <c r="C38" t="n">
-        <v>1365.084818551269</v>
+        <v>835.7637198285415</v>
       </c>
       <c r="D38" t="n">
-        <v>1006.819119944518</v>
+        <v>477.498021221791</v>
       </c>
       <c r="E38" t="n">
-        <v>1006.819119944518</v>
+        <v>477.498021221791</v>
       </c>
       <c r="F38" t="n">
-        <v>595.8332151549109</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G38" t="n">
-        <v>180.7607649999074</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H38" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I38" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J38" t="n">
         <v>255.3912473912088</v>
@@ -7183,19 +7183,19 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.776739001387</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O38" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q38" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R38" t="n">
         <v>3325.60582160917</v>
@@ -7204,22 +7204,22 @@
         <v>3215.315153136265</v>
       </c>
       <c r="T38" t="n">
-        <v>3215.315153136265</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U38" t="n">
-        <v>3215.315153136265</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V38" t="n">
-        <v>2884.252265792694</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W38" t="n">
-        <v>2884.252265792694</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X38" t="n">
-        <v>2510.786507531614</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y38" t="n">
-        <v>2120.647175555802</v>
+        <v>1591.326076833075</v>
       </c>
     </row>
     <row r="39">
@@ -7229,28 +7229,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>941.5438544811085</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C39" t="n">
-        <v>767.0908251999815</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D39" t="n">
-        <v>618.1564155387302</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E39" t="n">
-        <v>458.9189605332748</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F39" t="n">
-        <v>312.3844025601598</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G39" t="n">
         <v>176.0213023927779</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064542</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I39" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J39" t="n">
         <v>160.1893859228007</v>
@@ -7286,7 +7286,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U39" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V39" t="n">
         <v>1779.608347199865</v>
@@ -7295,10 +7295,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X39" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y39" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="40">
@@ -7308,7 +7308,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>674.4145879000976</v>
+        <v>644.3338566427974</v>
       </c>
       <c r="C40" t="n">
         <v>511.4317969248226</v>
@@ -7317,22 +7317,22 @@
         <v>361.3151575124868</v>
       </c>
       <c r="E40" t="n">
-        <v>213.4020639300937</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F40" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G40" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H40" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I40" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J40" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K40" t="n">
         <v>315.6219318279954</v>
@@ -7359,25 +7359,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S40" t="n">
-        <v>1735.608663915319</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T40" t="n">
-        <v>1735.608663915319</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U40" t="n">
-        <v>1446.505797040963</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V40" t="n">
-        <v>1191.821308835076</v>
+        <v>1161.740577577775</v>
       </c>
       <c r="W40" t="n">
-        <v>902.4041387981149</v>
+        <v>872.3234075408147</v>
       </c>
       <c r="X40" t="n">
-        <v>674.4145879000976</v>
+        <v>644.3338566427974</v>
       </c>
       <c r="Y40" t="n">
-        <v>674.4145879000976</v>
+        <v>644.3338566427974</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1320.35562273557</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="C41" t="n">
-        <v>1320.35562273557</v>
+        <v>1703.012869240228</v>
       </c>
       <c r="D41" t="n">
-        <v>1320.35562273557</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="E41" t="n">
-        <v>934.5673701373257</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F41" t="n">
-        <v>523.5814653477182</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G41" t="n">
-        <v>108.5090151927147</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H41" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I41" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O41" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q41" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R41" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S41" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T41" t="n">
-        <v>3215.315153136265</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U41" t="n">
-        <v>2961.784676410101</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V41" t="n">
-        <v>2823.329208306698</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W41" t="n">
-        <v>2470.560553036583</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X41" t="n">
-        <v>2097.094794775503</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="Y41" t="n">
-        <v>1706.955462799692</v>
+        <v>2071.975386180639</v>
       </c>
     </row>
     <row r="42">
@@ -7466,37 +7466,37 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C42" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D42" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E42" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F42" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G42" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I42" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J42" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K42" t="n">
-        <v>398.4535849031475</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L42" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M42" t="n">
         <v>1212.428070438129</v>
@@ -7523,7 +7523,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U42" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V42" t="n">
         <v>1779.608347199865</v>
@@ -7532,10 +7532,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X42" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y42" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="43">
@@ -7545,31 +7545,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>617.5020034330385</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="C43" t="n">
-        <v>617.5020034330385</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D43" t="n">
-        <v>529.0179941377679</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E43" t="n">
-        <v>381.1049005553748</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F43" t="n">
-        <v>234.2149530574644</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G43" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H43" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I43" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J43" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K43" t="n">
         <v>315.6219318279954</v>
@@ -7593,28 +7593,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R43" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S43" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T43" t="n">
-        <v>1424.011591242373</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U43" t="n">
-        <v>1134.908724368016</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V43" t="n">
-        <v>1134.908724368016</v>
+        <v>1161.740577577775</v>
       </c>
       <c r="W43" t="n">
-        <v>845.4915543310558</v>
+        <v>872.3234075408147</v>
       </c>
       <c r="X43" t="n">
-        <v>617.5020034330385</v>
+        <v>872.3234075408147</v>
       </c>
       <c r="Y43" t="n">
-        <v>617.5020034330385</v>
+        <v>693.0802617550623</v>
       </c>
     </row>
     <row r="44">
@@ -7624,34 +7624,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1519.109083729354</v>
+        <v>1295.236214140706</v>
       </c>
       <c r="C44" t="n">
-        <v>1150.146566788942</v>
+        <v>926.2736972002942</v>
       </c>
       <c r="D44" t="n">
-        <v>791.8808681821918</v>
+        <v>568.0079985935438</v>
       </c>
       <c r="E44" t="n">
-        <v>406.0926155839475</v>
+        <v>568.0079985935438</v>
       </c>
       <c r="F44" t="n">
-        <v>406.0926155839475</v>
+        <v>157.0220938039362</v>
       </c>
       <c r="G44" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H44" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I44" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L44" t="n">
         <v>1040.244834329464</v>
@@ -7672,28 +7672,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R44" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S44" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T44" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U44" t="n">
         <v>2755.806928794324</v>
       </c>
       <c r="V44" t="n">
-        <v>2424.744041450753</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W44" t="n">
-        <v>2071.975386180638</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X44" t="n">
-        <v>1698.509627919559</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="Y44" t="n">
-        <v>1698.509627919559</v>
+        <v>1681.836054204828</v>
       </c>
     </row>
     <row r="45">
@@ -7703,34 +7703,34 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C45" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D45" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E45" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F45" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G45" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I45" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J45" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L45" t="n">
         <v>765.1517452158132</v>
@@ -7760,7 +7760,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U45" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V45" t="n">
         <v>1779.608347199865</v>
@@ -7769,10 +7769,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X45" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y45" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="46">
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>496.5773008749145</v>
+        <v>661.957801444442</v>
       </c>
       <c r="C46" t="n">
-        <v>327.6411179470076</v>
+        <v>493.0216185165351</v>
       </c>
       <c r="D46" t="n">
-        <v>214.4252100145765</v>
+        <v>342.9049791041994</v>
       </c>
       <c r="E46" t="n">
-        <v>66.5121164321834</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F46" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G46" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H46" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I46" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J46" t="n">
         <v>111.634748879119</v>
@@ -7830,28 +7830,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R46" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S46" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T46" t="n">
-        <v>1705.527932658019</v>
+        <v>1615.697475415547</v>
       </c>
       <c r="U46" t="n">
-        <v>1416.425065783662</v>
+        <v>1615.697475415547</v>
       </c>
       <c r="V46" t="n">
-        <v>1416.425065783662</v>
+        <v>1361.01298720966</v>
       </c>
       <c r="W46" t="n">
-        <v>1127.007895746702</v>
+        <v>1071.595817172699</v>
       </c>
       <c r="X46" t="n">
-        <v>899.0183448486844</v>
+        <v>843.6062662746817</v>
       </c>
       <c r="Y46" t="n">
-        <v>678.2257657051542</v>
+        <v>843.6062662746817</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8069,13 +8069,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>479.3423743435536</v>
+        <v>435.9238900028825</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>199.0269485415596</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8309,13 +8309,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>274.4264991783518</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8543,10 +8543,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783518</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8768,19 +8768,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>113.5005232541323</v>
       </c>
       <c r="K12" t="n">
-        <v>40.32868412741894</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>292.3672670436453</v>
       </c>
       <c r="N12" t="n">
-        <v>267.7047941473395</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>17.26494649393209</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9002,7 +9002,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -9011,10 +9011,10 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>141.757246571521</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>292.3672670436453</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -9029,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>17.26494649393206</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9239,7 +9239,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -9266,7 +9266,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>0.546395060290962</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9476,7 +9476,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -9503,7 +9503,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>0.546395060290962</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9643,16 +9643,16 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>133.2530576400255</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -9883,10 +9883,10 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>172.5951493143683</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -10129,13 +10129,13 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>65.49693959066209</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10354,10 +10354,10 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>172.5951493143685</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -10591,10 +10591,10 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>172.5951493143685</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -10831,7 +10831,7 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>-1.250555214937776e-12</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -22546,28 +22546,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>224.5805635544636</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>96.46742798775853</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22606,7 +22606,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -22722,13 +22722,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>61.53161905815483</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22749,16 +22749,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -22767,7 +22767,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>130.3958356744437</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -22786,7 +22786,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -22795,13 +22795,13 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>55.33512420219768</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -22831,28 +22831,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>100.1879899763196</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -22941,10 +22941,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -22956,13 +22956,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>149.78054199936</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>45.199959188537</v>
@@ -22992,7 +22992,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -23001,7 +23001,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>78.46985368413391</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -23023,13 +23023,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>80.65332015525354</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -23041,7 +23041,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23068,28 +23068,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>61.13685042000895</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -23178,22 +23178,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>141.9938968421883</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -23202,7 +23202,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23226,16 +23226,16 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>56.01837628787189</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -23257,28 +23257,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>184.4302223948359</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>255.6075163509978</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>411.4371413535349</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>299.8862654257798</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>61.44749355031652</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23317,16 +23317,16 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23415,22 +23415,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>92.14372698106639</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.2570059982656</v>
       </c>
       <c r="H13" t="n">
         <v>146.8105729959039</v>
@@ -23469,22 +23469,22 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>220.5367941620016</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>134.2065320653164</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23494,28 +23494,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>176.8231818490511</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>299.8862654257798</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>61.44749355031652</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,25 +23545,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>206.1742023667267</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.0364052149085</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>103.515542229094</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>27.53070542748461</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>146.8105729959039</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>103.3051669679944</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,25 +23700,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>99.32764374521085</v>
       </c>
       <c r="S16" t="n">
-        <v>111.2344680580375</v>
+        <v>193.7981713870603</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2244489913895</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23731,10 +23731,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>296.7837013816875</v>
+        <v>169.7948001432182</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23746,13 +23746,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>294.6077643873205</v>
+        <v>294.7321536188796</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23785,7 +23785,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>203.9711388310543</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -23797,10 +23797,10 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23889,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>106.1147195499628</v>
+        <v>7.753633844572789</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>144.803454668018</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>96.51626366671984</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>89.17712508496182</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23946,10 +23946,10 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23968,10 +23968,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -23986,10 +23986,10 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>294.7321536188796</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>42.04518470759558</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24022,7 +24022,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>7.472592789114884</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -24031,7 +24031,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>304.8298322738582</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -24126,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>38.65457278550994</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>166.0312564930842</v>
       </c>
       <c r="H22" t="n">
-        <v>86.34558112268937</v>
+        <v>144.803454668018</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>96.51626366671984</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>89.17712508496182</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>189.8639731922165</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24186,7 +24186,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24217,16 +24217,16 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>352.9965411366424</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24256,10 +24256,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -24363,22 +24363,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>56.27854221392977</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>32.11628633022511</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>144.7550149143208</v>
@@ -24423,7 +24423,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24445,10 +24445,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -24457,10 +24457,10 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>80.51575712333113</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>294.6077643873205</v>
+        <v>155.7085463501234</v>
       </c>
       <c r="I26" t="n">
         <v>41.57692977292595</v>
@@ -24493,7 +24493,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24660,13 +24660,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>80.37290984114111</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>61.76674224145211</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24691,13 +24691,13 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>80.51575712333113</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>294.6077643873205</v>
+        <v>191.7382571322244</v>
       </c>
       <c r="I29" t="n">
         <v>41.57692977292595</v>
@@ -24748,7 +24748,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24888,19 +24888,19 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>85.19879918288774</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>214.5414662356957</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -24919,22 +24919,22 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>294.6077643873205</v>
+        <v>21.78807486266237</v>
       </c>
       <c r="I32" t="n">
         <v>41.57692977292595</v>
@@ -24970,7 +24970,7 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -24982,10 +24982,10 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>81.31922871454987</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25080,7 +25080,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25134,13 +25134,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>126.2505850482411</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>175.2259576965726</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25159,13 +25159,13 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>56.3735530451001</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -25204,22 +25204,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>8.871374720975894</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25311,13 +25311,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>35.67378197783296</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25362,25 +25362,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>118.0986533615246</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25405,10 +25405,10 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H38" t="n">
-        <v>181.5016023052737</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292595</v>
@@ -25444,22 +25444,22 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>280.1262230804347</v>
       </c>
     </row>
     <row r="39">
@@ -25551,7 +25551,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>5.89385803310563</v>
+        <v>35.67378197783279</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25599,10 +25599,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25627,13 +25627,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>228.8832021954664</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25645,10 +25645,10 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25681,22 +25681,22 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>190.6813450477657</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25785,13 +25785,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>61.01630381589453</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25800,7 +25800,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
         <v>144.7550149143208</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25845,16 +25845,16 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>41.13393902419992</v>
       </c>
     </row>
     <row r="44">
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>205.1273029151779</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25873,19 +25873,19 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>410.9217256534534</v>
+        <v>321.3168480554182</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25930,10 +25930,10 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26028,13 +26028,13 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>36.53172416510559</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>18.22607662420467</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>166.0258082590282</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>189.7690253314419</v>
@@ -26079,10 +26079,10 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>784886.8917865066</v>
+        <v>784886.8917865065</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>784886.8917865065</v>
+        <v>784886.8917865067</v>
       </c>
     </row>
     <row r="5">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>856762.3551823881</v>
+        <v>788088.8099581593</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>856762.3551823883</v>
+        <v>855142.5348868506</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>856762.3551823882</v>
+        <v>855142.5348868506</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1017002.276962772</v>
+        <v>856762.3551823882</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>926096.3367758166</v>
+        <v>856762.3551823882</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>926096.3367758166</v>
+        <v>856762.3551823881</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>926096.3367758166</v>
+        <v>856762.3551823881</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>926096.3367758165</v>
+        <v>856762.3551823881</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>856762.3551823881</v>
+        <v>856762.355182388</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>856762.3551823881</v>
+        <v>856762.3551823883</v>
       </c>
     </row>
     <row r="16">
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>289152.6100157574</v>
+        <v>289152.6100157572</v>
       </c>
       <c r="C2" t="n">
-        <v>289152.6100157576</v>
+        <v>289152.6100157575</v>
       </c>
       <c r="D2" t="n">
-        <v>289152.6100157574</v>
+        <v>289152.6100157575</v>
       </c>
       <c r="E2" t="n">
-        <v>312157.9037460882</v>
+        <v>312157.9037460884</v>
       </c>
       <c r="F2" t="n">
-        <v>340997.0989709206</v>
+        <v>312157.9037460885</v>
       </c>
       <c r="G2" t="n">
+        <v>340317.4959346298</v>
+      </c>
+      <c r="H2" t="n">
+        <v>340317.4959346299</v>
+      </c>
+      <c r="I2" t="n">
+        <v>340997.0989709204</v>
+      </c>
+      <c r="J2" t="n">
+        <v>340997.0989709207</v>
+      </c>
+      <c r="K2" t="n">
         <v>340997.0989709205</v>
       </c>
-      <c r="H2" t="n">
-        <v>340997.0989709206</v>
-      </c>
-      <c r="I2" t="n">
-        <v>397081.7868869831</v>
-      </c>
-      <c r="J2" t="n">
-        <v>365264.3020276903</v>
-      </c>
-      <c r="K2" t="n">
-        <v>365264.3020276902</v>
-      </c>
       <c r="L2" t="n">
-        <v>365264.3020276903</v>
+        <v>340997.0989709205</v>
       </c>
       <c r="M2" t="n">
-        <v>365264.3020276903</v>
+        <v>340997.0989709205</v>
       </c>
       <c r="N2" t="n">
         <v>340997.0989709205</v>
       </c>
       <c r="O2" t="n">
-        <v>340997.0989709205</v>
+        <v>340997.0989709206</v>
       </c>
       <c r="P2" t="n">
         <v>340997.0989709206</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,22 +26374,22 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>469045.4557502362</v>
+        <v>469045.4557502365</v>
       </c>
       <c r="F3" t="n">
-        <v>146359.9793562351</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>139380.1825493186</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>96558.9665973606</v>
+        <v>3258.831101311581</v>
       </c>
       <c r="J3" t="n">
-        <v>122525.2635793585</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26404,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>36918.69023451104</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26426,40 +26426,40 @@
         <v>62518.47524617217</v>
       </c>
       <c r="E4" t="n">
-        <v>8233.309415547668</v>
+        <v>8233.309415547661</v>
       </c>
       <c r="F4" t="n">
+        <v>8233.309415547661</v>
+      </c>
+      <c r="G4" t="n">
+        <v>4967.456039976124</v>
+      </c>
+      <c r="H4" t="n">
+        <v>4967.456039976125</v>
+      </c>
+      <c r="I4" t="n">
         <v>4890.851381993015</v>
       </c>
-      <c r="G4" t="n">
+      <c r="J4" t="n">
         <v>4890.851381993015</v>
       </c>
-      <c r="H4" t="n">
+      <c r="K4" t="n">
         <v>4890.851381993015</v>
       </c>
-      <c r="I4" t="n">
-        <v>25090.72367499382</v>
-      </c>
-      <c r="J4" t="n">
-        <v>13631.1051102245</v>
-      </c>
-      <c r="K4" t="n">
-        <v>13631.10511022451</v>
-      </c>
       <c r="L4" t="n">
-        <v>13631.10511022451</v>
+        <v>4890.851381993015</v>
       </c>
       <c r="M4" t="n">
-        <v>13631.10511022451</v>
+        <v>4890.851381993015</v>
       </c>
       <c r="N4" t="n">
-        <v>4890.851381992998</v>
+        <v>4890.851381993015</v>
       </c>
       <c r="O4" t="n">
         <v>4890.851381993015</v>
       </c>
       <c r="P4" t="n">
-        <v>4890.851381993003</v>
+        <v>4890.851381993015</v>
       </c>
     </row>
     <row r="5">
@@ -26478,40 +26478,40 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>61958.82776879412</v>
+        <v>61958.82776879413</v>
       </c>
       <c r="F5" t="n">
+        <v>61958.82776879413</v>
+      </c>
+      <c r="G5" t="n">
+        <v>74015.36825377263</v>
+      </c>
+      <c r="H5" t="n">
+        <v>74015.36825377263</v>
+      </c>
+      <c r="I5" t="n">
+        <v>74306.34056139328</v>
+      </c>
+      <c r="J5" t="n">
+        <v>74306.34056139328</v>
+      </c>
+      <c r="K5" t="n">
         <v>74306.3405613933</v>
       </c>
-      <c r="G5" t="n">
-        <v>74306.3405613933</v>
-      </c>
-      <c r="H5" t="n">
-        <v>74306.3405613933</v>
-      </c>
-      <c r="I5" t="n">
-        <v>96383.51825371366</v>
-      </c>
-      <c r="J5" t="n">
-        <v>83858.8828663757</v>
-      </c>
-      <c r="K5" t="n">
-        <v>83858.8828663757</v>
-      </c>
       <c r="L5" t="n">
-        <v>83858.8828663757</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="M5" t="n">
-        <v>83858.8828663757</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="N5" t="n">
         <v>74306.34056139328</v>
       </c>
       <c r="O5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="P5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-452261.2362541878</v>
+        <v>-446799.6638829509</v>
       </c>
       <c r="C6" t="n">
-        <v>137706.6429603567</v>
+        <v>143168.215331594</v>
       </c>
       <c r="D6" t="n">
-        <v>137706.6429603565</v>
+        <v>143168.215331594</v>
       </c>
       <c r="E6" t="n">
-        <v>-231997.8382477924</v>
+        <v>-227571.5040944201</v>
       </c>
       <c r="F6" t="n">
-        <v>111963.7383732382</v>
+        <v>241473.9516558165</v>
       </c>
       <c r="G6" t="n">
-        <v>258323.7177294732</v>
+        <v>121603.4721465749</v>
       </c>
       <c r="H6" t="n">
-        <v>258323.7177294732</v>
+        <v>260983.6546958936</v>
       </c>
       <c r="I6" t="n">
-        <v>178376.6234586571</v>
+        <v>258193.4569964164</v>
       </c>
       <c r="J6" t="n">
-        <v>142986.221326509</v>
+        <v>85029.06890513531</v>
       </c>
       <c r="K6" t="n">
-        <v>265511.4849058674</v>
+        <v>261452.288097728</v>
       </c>
       <c r="L6" t="n">
-        <v>265511.4849058676</v>
+        <v>261452.2880977281</v>
       </c>
       <c r="M6" t="n">
-        <v>265511.4849058675</v>
+        <v>261452.2880977281</v>
       </c>
       <c r="N6" t="n">
-        <v>258323.7177294732</v>
+        <v>261452.288097728</v>
       </c>
       <c r="O6" t="n">
-        <v>258323.7177294731</v>
+        <v>224533.5978632171</v>
       </c>
       <c r="P6" t="n">
-        <v>258323.7177294733</v>
+        <v>261452.2880977282</v>
       </c>
     </row>
   </sheetData>
@@ -26737,25 +26737,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>961.5670451980342</v>
+        <v>961.5670451980345</v>
       </c>
       <c r="F3" t="n">
-        <v>1089.776700593298</v>
+        <v>961.5670451980345</v>
       </c>
       <c r="G3" t="n">
-        <v>1089.776700593298</v>
+        <v>1086.755407162287</v>
       </c>
       <c r="H3" t="n">
-        <v>1089.776700593298</v>
+        <v>1086.755407162287</v>
       </c>
       <c r="I3" t="n">
         <v>1089.776700593298</v>
@@ -26801,37 +26801,37 @@
         <v>674.2872727545556</v>
       </c>
       <c r="F4" t="n">
+        <v>674.2872727545556</v>
+      </c>
+      <c r="G4" t="n">
+        <v>827.699019368993</v>
+      </c>
+      <c r="H4" t="n">
+        <v>827.699019368993</v>
+      </c>
+      <c r="I4" t="n">
+        <v>831.4014554022925</v>
+      </c>
+      <c r="J4" t="n">
+        <v>831.4014554022925</v>
+      </c>
+      <c r="K4" t="n">
+        <v>831.4014554022926</v>
+      </c>
+      <c r="L4" t="n">
+        <v>831.4014554022925</v>
+      </c>
+      <c r="M4" t="n">
+        <v>831.4014554022925</v>
+      </c>
+      <c r="N4" t="n">
+        <v>831.4014554022925</v>
+      </c>
+      <c r="O4" t="n">
         <v>831.4014554022928</v>
       </c>
-      <c r="G4" t="n">
-        <v>831.4014554022929</v>
-      </c>
-      <c r="H4" t="n">
-        <v>831.4014554022926</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1194.51293060493</v>
-      </c>
-      <c r="J4" t="n">
-        <v>988.5156380500297</v>
-      </c>
-      <c r="K4" t="n">
-        <v>988.5156380500297</v>
-      </c>
-      <c r="L4" t="n">
-        <v>988.5156380500297</v>
-      </c>
-      <c r="M4" t="n">
-        <v>988.5156380500297</v>
-      </c>
-      <c r="N4" t="n">
-        <v>831.4014554022924</v>
-      </c>
-      <c r="O4" t="n">
-        <v>831.4014554022924</v>
-      </c>
       <c r="P4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022928</v>
       </c>
     </row>
   </sheetData>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,19 +26968,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>583.8233809809475</v>
+        <v>583.8233809809478</v>
       </c>
       <c r="F3" t="n">
-        <v>128.2096553952641</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>125.1883619642522</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>3.0212934310116</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27023,19 +27023,19 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>157.1141826477372</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>153.4117466144374</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>363.1114752026376</v>
+        <v>3.702436033299477</v>
       </c>
       <c r="J4" t="n">
-        <v>468.289980199655</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27050,7 +27050,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>153.4117466144377</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27269,10 +27269,10 @@
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>157.1141826477372</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>153.4117466144374</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -31041,46 +31041,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31223,22 +31223,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31521,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31548,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31697,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.865596161600135</v>
+        <v>3.865596161600136</v>
       </c>
       <c r="H11" t="n">
-        <v>39.58853668998739</v>
+        <v>39.5885366899874</v>
       </c>
       <c r="I11" t="n">
-        <v>149.0283960200893</v>
+        <v>149.0283960200894</v>
       </c>
       <c r="J11" t="n">
-        <v>328.0876422206097</v>
+        <v>328.0876422206098</v>
       </c>
       <c r="K11" t="n">
-        <v>491.7183277411435</v>
+        <v>491.7183277411437</v>
       </c>
       <c r="L11" t="n">
-        <v>610.0200662717137</v>
+        <v>610.020066271714</v>
       </c>
       <c r="M11" t="n">
-        <v>678.7648620105701</v>
+        <v>678.7648620105704</v>
       </c>
       <c r="N11" t="n">
-        <v>689.7479871047166</v>
+        <v>689.7479871047168</v>
       </c>
       <c r="O11" t="n">
-        <v>651.3094652728051</v>
+        <v>651.3094652728054</v>
       </c>
       <c r="P11" t="n">
-        <v>555.8775600333017</v>
+        <v>555.877560033302</v>
       </c>
       <c r="Q11" t="n">
-        <v>417.4408974959968</v>
+        <v>417.440897495997</v>
       </c>
       <c r="R11" t="n">
-        <v>242.8222548861146</v>
+        <v>242.8222548861147</v>
       </c>
       <c r="S11" t="n">
-        <v>88.08727253246315</v>
+        <v>88.08727253246319</v>
       </c>
       <c r="T11" t="n">
         <v>16.9216471974046</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3092476929280107</v>
+        <v>0.3092476929280108</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,34 +31831,34 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.068276285897658</v>
+        <v>2.068276285897659</v>
       </c>
       <c r="H12" t="n">
         <v>19.97519465590634</v>
       </c>
       <c r="I12" t="n">
-        <v>71.21038966796763</v>
+        <v>71.21038966796766</v>
       </c>
       <c r="J12" t="n">
-        <v>195.4067520812345</v>
+        <v>195.4067520812346</v>
       </c>
       <c r="K12" t="n">
-        <v>333.9812632363776</v>
+        <v>333.9812632363777</v>
       </c>
       <c r="L12" t="n">
-        <v>449.0790242691386</v>
+        <v>449.0790242691387</v>
       </c>
       <c r="M12" t="n">
-        <v>524.0540396329286</v>
+        <v>524.0540396329287</v>
       </c>
       <c r="N12" t="n">
-        <v>537.9241906905494</v>
+        <v>537.9241906905495</v>
       </c>
       <c r="O12" t="n">
-        <v>492.0955424609223</v>
+        <v>492.0955424609224</v>
       </c>
       <c r="P12" t="n">
-        <v>394.9500567342643</v>
+        <v>394.9500567342644</v>
       </c>
       <c r="Q12" t="n">
         <v>264.0136536173924</v>
@@ -31867,13 +31867,13 @@
         <v>128.4145574700319</v>
       </c>
       <c r="S12" t="n">
-        <v>38.4173248718271</v>
+        <v>38.41732487182711</v>
       </c>
       <c r="T12" t="n">
-        <v>8.336604854122577</v>
+        <v>8.33660485412258</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1360708082827407</v>
+        <v>0.1360708082827408</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.733973360193176</v>
+        <v>1.733973360193177</v>
       </c>
       <c r="H13" t="n">
         <v>15.41659951153571</v>
       </c>
       <c r="I13" t="n">
-        <v>52.1453079592639</v>
+        <v>52.14530795926392</v>
       </c>
       <c r="J13" t="n">
         <v>122.5919165656576</v>
       </c>
       <c r="K13" t="n">
-        <v>201.4561776660799</v>
+        <v>201.45617766608</v>
       </c>
       <c r="L13" t="n">
-        <v>257.7945484781746</v>
+        <v>257.7945484781747</v>
       </c>
       <c r="M13" t="n">
-        <v>271.8082059073721</v>
+        <v>271.8082059073722</v>
       </c>
       <c r="N13" t="n">
-        <v>265.3452142921068</v>
+        <v>265.345214292107</v>
       </c>
       <c r="O13" t="n">
-        <v>245.0892527662137</v>
+        <v>245.0892527662139</v>
       </c>
       <c r="P13" t="n">
-        <v>209.7161962182728</v>
+        <v>209.7161962182729</v>
       </c>
       <c r="Q13" t="n">
         <v>145.1966238249032</v>
       </c>
       <c r="R13" t="n">
-        <v>77.96574763195861</v>
+        <v>77.96574763195864</v>
       </c>
       <c r="S13" t="n">
-        <v>30.21842664991198</v>
+        <v>30.21842664991199</v>
       </c>
       <c r="T13" t="n">
-        <v>7.408795266279933</v>
+        <v>7.408795266279935</v>
       </c>
       <c r="U13" t="n">
-        <v>0.09458036510144609</v>
+        <v>0.09458036510144611</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681598</v>
+        <v>3.865596161600136</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844668</v>
+        <v>39.5885366899874</v>
       </c>
       <c r="I14" t="n">
-        <v>168.89895979748</v>
+        <v>149.0283960200894</v>
       </c>
       <c r="J14" t="n">
-        <v>371.8329054953988</v>
+        <v>328.0876422206098</v>
       </c>
       <c r="K14" t="n">
-        <v>557.281137600381</v>
+        <v>491.7183277411437</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623194</v>
+        <v>610.020066271714</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574995</v>
+        <v>678.7648620105704</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095023</v>
+        <v>689.7479871047168</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099059</v>
+        <v>651.3094652728054</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746414</v>
+        <v>555.877560033302</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.099994678169</v>
+        <v>417.440897495997</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563569</v>
+        <v>242.8222548861147</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806951</v>
+        <v>88.08727253246319</v>
       </c>
       <c r="T14" t="n">
-        <v>19.1778794245112</v>
+        <v>16.9216471974046</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3092476929280108</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.344047997502566</v>
+        <v>2.068276285897659</v>
       </c>
       <c r="H15" t="n">
-        <v>22.63856881798531</v>
+        <v>19.97519465590634</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752258</v>
+        <v>71.21038966796766</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026438</v>
+        <v>195.4067520812346</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353157</v>
+        <v>333.9812632363777</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138796</v>
+        <v>449.0790242691387</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233475</v>
+        <v>524.0540396329287</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837925</v>
+        <v>537.9241906905495</v>
       </c>
       <c r="O15" t="n">
-        <v>557.708647897025</v>
+        <v>492.0955424609224</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002927</v>
+        <v>394.9500567342644</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987487</v>
+        <v>264.0136536173924</v>
       </c>
       <c r="R15" t="n">
-        <v>145.5365940905541</v>
+        <v>128.4145574700319</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238316</v>
+        <v>38.41732487182711</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898497</v>
+        <v>8.33660485412258</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1360708082827408</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430538</v>
+        <v>1.733973360193177</v>
       </c>
       <c r="H16" t="n">
-        <v>17.47215759311879</v>
+        <v>15.41659951153571</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742019</v>
+        <v>52.14530795926392</v>
       </c>
       <c r="J16" t="n">
-        <v>138.937596729739</v>
+        <v>122.5919165656576</v>
       </c>
       <c r="K16" t="n">
-        <v>228.3171513702024</v>
+        <v>201.45617766608</v>
       </c>
       <c r="L16" t="n">
-        <v>292.167346909882</v>
+        <v>257.7945484781747</v>
       </c>
       <c r="M16" t="n">
-        <v>308.0495024316432</v>
+        <v>271.8082059073722</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883115</v>
+        <v>265.345214292107</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086001</v>
+        <v>245.0892527662139</v>
       </c>
       <c r="P16" t="n">
-        <v>237.6785118802169</v>
+        <v>209.7161962182729</v>
       </c>
       <c r="Q16" t="n">
-        <v>164.556281789588</v>
+        <v>145.1966238249032</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712215</v>
+        <v>77.96574763195864</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553036</v>
+        <v>30.21842664991199</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112296</v>
+        <v>7.408795266279935</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.09458036510144611</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681598</v>
+        <v>4.36886595844135</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844668</v>
+        <v>44.74264849688749</v>
       </c>
       <c r="I17" t="n">
-        <v>168.89895979748</v>
+        <v>168.4307048628103</v>
       </c>
       <c r="J17" t="n">
-        <v>371.8329054953988</v>
+        <v>370.8020371402619</v>
       </c>
       <c r="K17" t="n">
-        <v>557.281137600381</v>
+        <v>555.7361331610844</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623194</v>
+        <v>689.439814736734</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574995</v>
+        <v>767.1346347251653</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095023</v>
+        <v>779.5476751295869</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099059</v>
+        <v>736.1047642553357</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746414</v>
+        <v>628.2483859063148</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.099994678169</v>
+        <v>471.7883737696337</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563569</v>
+        <v>274.4357762619417</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806951</v>
+        <v>99.55553302798236</v>
       </c>
       <c r="T17" t="n">
-        <v>19.1778794245112</v>
+        <v>19.12471073307702</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.349509276675308</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.344047997502566</v>
+        <v>2.337549366349069</v>
       </c>
       <c r="H18" t="n">
-        <v>22.63856881798531</v>
+        <v>22.57580572237128</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752258</v>
+        <v>80.48141458701842</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026438</v>
+        <v>220.8471530724794</v>
       </c>
       <c r="K18" t="n">
-        <v>378.5123470353157</v>
+        <v>377.4629606178671</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138796</v>
+        <v>507.5455323732925</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233475</v>
+        <v>592.2816969034462</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837925</v>
+        <v>607.9576310312872</v>
       </c>
       <c r="O18" t="n">
-        <v>557.708647897025</v>
+        <v>556.1624582295525</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002927</v>
+        <v>446.369404877657</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987487</v>
+        <v>298.3861261325584</v>
       </c>
       <c r="R18" t="n">
-        <v>145.5365940905541</v>
+        <v>145.133108903673</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238316</v>
+        <v>43.41895423898379</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898497</v>
+        <v>9.421964331906992</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1537861425229652</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430538</v>
+        <v>1.959722865374615</v>
       </c>
       <c r="H19" t="n">
-        <v>17.47215759311879</v>
+        <v>17.42371783942159</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742019</v>
+        <v>58.93421126053845</v>
       </c>
       <c r="J19" t="n">
-        <v>138.937596729739</v>
+        <v>138.5524065819853</v>
       </c>
       <c r="K19" t="n">
-        <v>228.3171513702024</v>
+        <v>227.6841656317052</v>
       </c>
       <c r="L19" t="n">
-        <v>292.167346909882</v>
+        <v>291.3573430939678</v>
       </c>
       <c r="M19" t="n">
-        <v>308.0495024316432</v>
+        <v>307.1954669786771</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883115</v>
+        <v>299.8910453895538</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086001</v>
+        <v>276.9979191894957</v>
       </c>
       <c r="P19" t="n">
-        <v>237.6785118802169</v>
+        <v>237.0195727358534</v>
       </c>
       <c r="Q19" t="n">
-        <v>164.556281789588</v>
+        <v>164.1000664815053</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712215</v>
+        <v>88.11626629220767</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553036</v>
+        <v>34.15262484475578</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112296</v>
+        <v>8.373361333873353</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1068939744749791</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681598</v>
+        <v>4.36886595844135</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844668</v>
+        <v>44.74264849688749</v>
       </c>
       <c r="I20" t="n">
-        <v>168.89895979748</v>
+        <v>168.4307048628103</v>
       </c>
       <c r="J20" t="n">
-        <v>371.8329054953988</v>
+        <v>370.8020371402619</v>
       </c>
       <c r="K20" t="n">
-        <v>557.281137600381</v>
+        <v>555.7361331610844</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623194</v>
+        <v>689.439814736734</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574995</v>
+        <v>767.1346347251653</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095023</v>
+        <v>779.5476751295869</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099059</v>
+        <v>736.1047642553357</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746414</v>
+        <v>628.2483859063148</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.099994678169</v>
+        <v>471.7883737696337</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563569</v>
+        <v>274.4357762619417</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806951</v>
+        <v>99.55553302798236</v>
       </c>
       <c r="T20" t="n">
-        <v>19.1778794245112</v>
+        <v>19.12471073307702</v>
       </c>
       <c r="U20" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.349509276675308</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.344047997502566</v>
+        <v>2.337549366349069</v>
       </c>
       <c r="H21" t="n">
-        <v>22.63856881798531</v>
+        <v>22.57580572237128</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752258</v>
+        <v>80.48141458701842</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026438</v>
+        <v>220.8471530724794</v>
       </c>
       <c r="K21" t="n">
-        <v>378.5123470353157</v>
+        <v>377.4629606178671</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138796</v>
+        <v>507.5455323732925</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233475</v>
+        <v>592.2816969034462</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837925</v>
+        <v>607.9576310312872</v>
       </c>
       <c r="O21" t="n">
-        <v>557.708647897025</v>
+        <v>556.1624582295525</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002927</v>
+        <v>446.369404877657</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987487</v>
+        <v>298.3861261325584</v>
       </c>
       <c r="R21" t="n">
-        <v>145.5365940905541</v>
+        <v>145.133108903673</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238316</v>
+        <v>43.41895423898379</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898497</v>
+        <v>9.421964331906992</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1537861425229652</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430538</v>
+        <v>1.959722865374615</v>
       </c>
       <c r="H22" t="n">
-        <v>17.47215759311879</v>
+        <v>17.42371783942159</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742019</v>
+        <v>58.93421126053845</v>
       </c>
       <c r="J22" t="n">
-        <v>138.937596729739</v>
+        <v>138.5524065819853</v>
       </c>
       <c r="K22" t="n">
-        <v>228.3171513702024</v>
+        <v>227.6841656317052</v>
       </c>
       <c r="L22" t="n">
-        <v>292.167346909882</v>
+        <v>291.3573430939678</v>
       </c>
       <c r="M22" t="n">
-        <v>308.0495024316432</v>
+        <v>307.1954669786771</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883115</v>
+        <v>299.8910453895538</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086001</v>
+        <v>276.9979191894957</v>
       </c>
       <c r="P22" t="n">
-        <v>237.6785118802169</v>
+        <v>237.0195727358534</v>
       </c>
       <c r="Q22" t="n">
-        <v>164.556281789588</v>
+        <v>164.1000664815053</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712215</v>
+        <v>88.11626629220767</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553036</v>
+        <v>34.15262484475578</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112296</v>
+        <v>8.373361333873353</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1068939744749791</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -33037,7 +33037,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O27" t="n">
         <v>557.708647897025</v>
@@ -33283,7 +33283,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
@@ -33511,7 +33511,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O33" t="n">
         <v>557.708647897025</v>
@@ -33520,7 +33520,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
@@ -33748,7 +33748,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O36" t="n">
         <v>557.708647897025</v>
@@ -33994,7 +33994,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
@@ -34698,25 +34698,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34789,13 +34789,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>515.9012490932192</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34874,7 +34874,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35029,13 +35029,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>325.145920326212</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35263,13 +35263,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>325.145920326212</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>147.0417376939234</v>
+        <v>147.0417376939236</v>
       </c>
       <c r="K11" t="n">
-        <v>271.628476696163</v>
+        <v>271.6284766961631</v>
       </c>
       <c r="L11" t="n">
-        <v>374.2536513017265</v>
+        <v>374.2536513017267</v>
       </c>
       <c r="M11" t="n">
-        <v>448.4186287832974</v>
+        <v>448.4186287832977</v>
       </c>
       <c r="N11" t="n">
-        <v>460.3349235081257</v>
+        <v>460.3349235081259</v>
       </c>
       <c r="O11" t="n">
-        <v>421.2112538511184</v>
+        <v>421.2112538511186</v>
       </c>
       <c r="P11" t="n">
-        <v>324.6445642780322</v>
+        <v>324.6445642780324</v>
       </c>
       <c r="Q11" t="n">
-        <v>195.1352076215473</v>
+        <v>195.1352076215475</v>
       </c>
       <c r="R11" t="n">
-        <v>27.23671707198253</v>
+        <v>27.23671707198261</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>194.6601607549767</v>
+        <v>182.0696486687002</v>
       </c>
       <c r="K12" t="n">
-        <v>236.4685083894376</v>
+        <v>196.1398242620187</v>
       </c>
       <c r="L12" t="n">
-        <v>310.5246444892644</v>
+        <v>310.5246444892645</v>
       </c>
       <c r="M12" t="n">
-        <v>381.9200057109103</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="N12" t="n">
-        <v>674.2872727545556</v>
+        <v>406.5824786072162</v>
       </c>
       <c r="O12" t="n">
-        <v>349.4992980164778</v>
+        <v>349.499298016478</v>
       </c>
       <c r="P12" t="n">
-        <v>260.9756493199341</v>
+        <v>260.9756493199342</v>
       </c>
       <c r="Q12" t="n">
         <v>124.0318795313709</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>28.25672331738876</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>29.23273644898478</v>
+        <v>29.23273644898482</v>
       </c>
       <c r="K13" t="n">
-        <v>179.186685840197</v>
+        <v>179.1866858401971</v>
       </c>
       <c r="L13" t="n">
-        <v>285.3845737384908</v>
+        <v>285.3845737384909</v>
       </c>
       <c r="M13" t="n">
-        <v>311.3920828692127</v>
+        <v>311.3920828692128</v>
       </c>
       <c r="N13" t="n">
-        <v>309.4773866713355</v>
+        <v>309.4773866713356</v>
       </c>
       <c r="O13" t="n">
-        <v>269.6743806802534</v>
+        <v>269.6743806802535</v>
       </c>
       <c r="P13" t="n">
-        <v>206.9947554831663</v>
+        <v>206.9947554831664</v>
       </c>
       <c r="Q13" t="n">
-        <v>59.03458057320877</v>
+        <v>59.03458057320883</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687126</v>
+        <v>147.0417376939236</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554005</v>
+        <v>271.6284766961631</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923322</v>
+        <v>374.2536513017267</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302268</v>
+        <v>448.4186287832977</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129115</v>
+        <v>460.3349235081259</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882191</v>
+        <v>421.2112538511186</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193719</v>
+        <v>324.6445642780324</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037195</v>
+        <v>195.1352076215475</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222478</v>
+        <v>27.23671707198261</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.6235045359771</v>
+        <v>68.56912541456788</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609567</v>
+        <v>196.1398242620187</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340054</v>
+        <v>452.2818910607855</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013292</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004592</v>
+        <v>406.5824786072162</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525806</v>
+        <v>349.499298016478</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859624</v>
+        <v>260.9756493199342</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127272</v>
+        <v>124.0318795313709</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.57841661306622</v>
+        <v>29.23273644898482</v>
       </c>
       <c r="K16" t="n">
-        <v>206.0476595443196</v>
+        <v>179.1866858401971</v>
       </c>
       <c r="L16" t="n">
-        <v>319.7573721701981</v>
+        <v>285.3845737384909</v>
       </c>
       <c r="M16" t="n">
-        <v>347.6333793934838</v>
+        <v>311.3920828692128</v>
       </c>
       <c r="N16" t="n">
-        <v>344.8569461675401</v>
+        <v>309.4773866713356</v>
       </c>
       <c r="O16" t="n">
-        <v>302.3531302226398</v>
+        <v>269.6743806802535</v>
       </c>
       <c r="P16" t="n">
-        <v>234.9570711451104</v>
+        <v>206.9947554831664</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789366</v>
+        <v>59.03458057320883</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687126</v>
+        <v>189.7561326135756</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554005</v>
+        <v>335.6462821161038</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923322</v>
+        <v>453.6733997667467</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302268</v>
+        <v>536.7884014978926</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129115</v>
+        <v>550.1346115329959</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882191</v>
+        <v>506.0065528336489</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193719</v>
+        <v>397.0153901510452</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037195</v>
+        <v>249.4826838951842</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222478</v>
+        <v>58.8502384478096</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.6235045359771</v>
+        <v>94.00952640581275</v>
       </c>
       <c r="K18" t="n">
-        <v>240.6709080609567</v>
+        <v>239.6215216435081</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340054</v>
+        <v>368.9911525934183</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013292</v>
+        <v>450.1476629814279</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004592</v>
+        <v>476.6159189479539</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525806</v>
+        <v>413.5662137851074</v>
       </c>
       <c r="P18" t="n">
-        <v>313.6359509859624</v>
+        <v>312.3949974633268</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127272</v>
+        <v>158.4043520465369</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.57841661306622</v>
+        <v>45.19322646531251</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443196</v>
+        <v>205.4146738058224</v>
       </c>
       <c r="L19" t="n">
-        <v>319.7573721701981</v>
+        <v>318.947368354284</v>
       </c>
       <c r="M19" t="n">
-        <v>347.6333793934838</v>
+        <v>346.7793439405177</v>
       </c>
       <c r="N19" t="n">
-        <v>344.8569461675401</v>
+        <v>344.0232177687824</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226398</v>
+        <v>301.5830471035354</v>
       </c>
       <c r="P19" t="n">
-        <v>234.9570711451104</v>
+        <v>234.2981320007468</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789366</v>
+        <v>77.9380232298109</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687126</v>
+        <v>189.7561326135756</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554005</v>
+        <v>335.6462821161038</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923322</v>
+        <v>453.6733997667467</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302268</v>
+        <v>536.7884014978926</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129115</v>
+        <v>550.1346115329959</v>
       </c>
       <c r="O20" t="n">
-        <v>508.0530008882191</v>
+        <v>506.0065528336489</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193719</v>
+        <v>397.0153901510452</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037195</v>
+        <v>249.4826838951842</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222478</v>
+        <v>58.8502384478096</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.6235045359771</v>
+        <v>94.00952640581275</v>
       </c>
       <c r="K21" t="n">
-        <v>240.6709080609567</v>
+        <v>239.6215216435081</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340054</v>
+        <v>368.9911525934183</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013292</v>
+        <v>450.1476629814279</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004592</v>
+        <v>476.6159189479539</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525806</v>
+        <v>413.5662137851081</v>
       </c>
       <c r="P21" t="n">
-        <v>313.6359509859624</v>
+        <v>312.3949974633268</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127272</v>
+        <v>158.4043520465369</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.57841661306622</v>
+        <v>45.19322646531251</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443196</v>
+        <v>205.4146738058224</v>
       </c>
       <c r="L22" t="n">
-        <v>319.7573721701981</v>
+        <v>318.947368354284</v>
       </c>
       <c r="M22" t="n">
-        <v>347.6333793934838</v>
+        <v>346.7793439405177</v>
       </c>
       <c r="N22" t="n">
-        <v>344.8569461675401</v>
+        <v>344.0232177687824</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226398</v>
+        <v>301.5830471035354</v>
       </c>
       <c r="P22" t="n">
-        <v>234.9570711451104</v>
+        <v>234.2981320007468</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789366</v>
+        <v>77.9380232298109</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36363,16 +36363,16 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L23" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M23" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N23" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O23" t="n">
-        <v>641.3060585282446</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P23" t="n">
         <v>398.7619862193719</v>
@@ -36603,10 +36603,10 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M26" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N26" t="n">
-        <v>724.8969847272798</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O26" t="n">
         <v>508.0530008882191</v>
@@ -36685,7 +36685,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O27" t="n">
         <v>415.1124034525806</v>
@@ -36831,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K29" t="n">
         <v>337.1912865554005</v>
@@ -36849,13 +36849,13 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P29" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q29" t="n">
-        <v>316.2912443943816</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R29" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36931,7 +36931,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37074,10 +37074,10 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L32" t="n">
-        <v>628.1852637067007</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M32" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N32" t="n">
         <v>552.3018354129115</v>
@@ -37159,7 +37159,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O33" t="n">
         <v>415.1124034525806</v>
@@ -37168,7 +37168,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37311,10 +37311,10 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L35" t="n">
-        <v>628.1852637067007</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M35" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N35" t="n">
         <v>552.3018354129115</v>
@@ -37396,7 +37396,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O36" t="n">
         <v>415.1124034525806</v>
@@ -37551,7 +37551,7 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302255</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N38" t="n">
         <v>552.3018354129115</v>
@@ -37642,7 +37642,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -38040,7 +38040,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222388</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
